--- a/Mec_ver4-main/data/data9001_reverse.xlsx
+++ b/Mec_ver4-main/data/data9001_reverse.xlsx
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="A501" sqref="A501:P999"/>
+    <sheetView tabSelected="1" topLeftCell="A493" workbookViewId="0">
+      <selection activeCell="S499" sqref="S499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25532,7 +25532,7 @@
         <v>0.42094538436396051</v>
       </c>
       <c r="P502">
-        <v>39095</v>
+        <v>39261</v>
       </c>
     </row>
     <row r="503" spans="1:16">
@@ -25582,7 +25582,7 @@
         <v>0.3884004973534016</v>
       </c>
       <c r="P503">
-        <v>38939</v>
+        <v>39417</v>
       </c>
     </row>
     <row r="504" spans="1:16">
@@ -25632,7 +25632,7 @@
         <v>0.38111636258874848</v>
       </c>
       <c r="P504">
-        <v>38855</v>
+        <v>39501</v>
       </c>
     </row>
     <row r="505" spans="1:16">
@@ -25682,7 +25682,7 @@
         <v>0.38111636258874848</v>
       </c>
       <c r="P505">
-        <v>38771</v>
+        <v>39585</v>
       </c>
     </row>
     <row r="506" spans="1:16">
@@ -25732,7 +25732,7 @@
         <v>0.38111636258874848</v>
       </c>
       <c r="P506">
-        <v>38684</v>
+        <v>39672</v>
       </c>
     </row>
     <row r="507" spans="1:16">
@@ -25782,7 +25782,7 @@
         <v>0.38111636258874848</v>
       </c>
       <c r="P507">
-        <v>38600</v>
+        <v>39756</v>
       </c>
     </row>
     <row r="508" spans="1:16">
@@ -25832,7 +25832,7 @@
         <v>0.22210565059780271</v>
       </c>
       <c r="P508">
-        <v>38510</v>
+        <v>39846</v>
       </c>
     </row>
     <row r="509" spans="1:16">
@@ -25882,7 +25882,7 @@
         <v>0.3552739198686809</v>
       </c>
       <c r="P509">
-        <v>38425</v>
+        <v>39931</v>
       </c>
     </row>
     <row r="510" spans="1:16">
@@ -25932,7 +25932,7 @@
         <v>0.68468302943832549</v>
       </c>
       <c r="P510">
-        <v>38339</v>
+        <v>40017</v>
       </c>
     </row>
     <row r="511" spans="1:16">
@@ -25982,7 +25982,7 @@
         <v>0.43995540093650398</v>
       </c>
       <c r="P511">
-        <v>38244</v>
+        <v>40112</v>
       </c>
     </row>
     <row r="512" spans="1:16">
@@ -26032,7 +26032,7 @@
         <v>0.30565356043493708</v>
       </c>
       <c r="P512">
-        <v>38154</v>
+        <v>40202</v>
       </c>
     </row>
     <row r="513" spans="1:16">
@@ -26082,7 +26082,7 @@
         <v>0.42430005610003002</v>
       </c>
       <c r="P513">
-        <v>38069</v>
+        <v>40287</v>
       </c>
     </row>
     <row r="514" spans="1:16">
@@ -26132,7 +26132,7 @@
         <v>0.5684089387723823</v>
       </c>
       <c r="P514">
-        <v>37592</v>
+        <v>40764</v>
       </c>
     </row>
     <row r="515" spans="1:16">
@@ -26182,7 +26182,7 @@
         <v>0.36158492065186087</v>
       </c>
       <c r="P515">
-        <v>37496</v>
+        <v>40860</v>
       </c>
     </row>
     <row r="516" spans="1:16">
@@ -26232,7 +26232,7 @@
         <v>4.2884830603981947E-2</v>
       </c>
       <c r="P516">
-        <v>37398</v>
+        <v>40958</v>
       </c>
     </row>
     <row r="517" spans="1:16">
@@ -26282,7 +26282,7 @@
         <v>0.16047658501443779</v>
       </c>
       <c r="P517">
-        <v>37298</v>
+        <v>41058</v>
       </c>
     </row>
     <row r="518" spans="1:16">
@@ -26332,7 +26332,7 @@
         <v>0.31414086822683951</v>
       </c>
       <c r="P518">
-        <v>37188</v>
+        <v>41168</v>
       </c>
     </row>
     <row r="519" spans="1:16">
@@ -26382,7 +26382,7 @@
         <v>0.50339586323258556</v>
       </c>
       <c r="P519">
-        <v>37089</v>
+        <v>41267</v>
       </c>
     </row>
     <row r="520" spans="1:16">
@@ -26432,7 +26432,7 @@
         <v>0.52542328354208045</v>
       </c>
       <c r="P520">
-        <v>36984</v>
+        <v>41372</v>
       </c>
     </row>
     <row r="521" spans="1:16">
@@ -26482,7 +26482,7 @@
         <v>0.45100179009026881</v>
       </c>
       <c r="P521">
-        <v>36883</v>
+        <v>41473</v>
       </c>
     </row>
     <row r="522" spans="1:16">
@@ -26532,7 +26532,7 @@
         <v>0.37347090991739901</v>
       </c>
       <c r="P522">
-        <v>36776</v>
+        <v>41580</v>
       </c>
     </row>
     <row r="523" spans="1:16">
@@ -26582,7 +26582,7 @@
         <v>0.43636065893004139</v>
       </c>
       <c r="P523">
-        <v>36671</v>
+        <v>41685</v>
       </c>
     </row>
     <row r="524" spans="1:16">
@@ -26632,7 +26632,7 @@
         <v>0.38903770164572138</v>
       </c>
       <c r="P524">
-        <v>36558</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="525" spans="1:16">
@@ -26682,7 +26682,7 @@
         <v>0.48280854985543198</v>
       </c>
       <c r="P525">
-        <v>36449</v>
+        <v>41907</v>
       </c>
     </row>
     <row r="526" spans="1:16">
@@ -26732,7 +26732,7 @@
         <v>0.7303731045279529</v>
       </c>
       <c r="P526">
-        <v>36339</v>
+        <v>42017</v>
       </c>
     </row>
     <row r="527" spans="1:16">
@@ -26782,7 +26782,7 @@
         <v>0.56188479680745029</v>
       </c>
       <c r="P527">
-        <v>36229</v>
+        <v>42127</v>
       </c>
     </row>
     <row r="528" spans="1:16">
@@ -26832,7 +26832,7 @@
         <v>0.43334392180825959</v>
       </c>
       <c r="P528">
-        <v>36122</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="529" spans="1:16">
@@ -26882,7 +26882,7 @@
         <v>0.3261395546144335</v>
       </c>
       <c r="P529">
-        <v>36016</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="530" spans="1:16">
@@ -26932,7 +26932,7 @@
         <v>0.59474729908564972</v>
       </c>
       <c r="P530">
-        <v>35909</v>
+        <v>42447</v>
       </c>
     </row>
     <row r="531" spans="1:16">
@@ -26982,7 +26982,7 @@
         <v>0.7043891887750402</v>
       </c>
       <c r="P531">
-        <v>35801</v>
+        <v>42555</v>
       </c>
     </row>
     <row r="532" spans="1:16">
@@ -27032,7 +27032,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P532">
-        <v>35689</v>
+        <v>42667</v>
       </c>
     </row>
     <row r="533" spans="1:16">
@@ -27082,7 +27082,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P533">
-        <v>35689</v>
+        <v>42667</v>
       </c>
     </row>
     <row r="534" spans="1:16">
@@ -27132,7 +27132,7 @@
         <v>0.69778542271854782</v>
       </c>
       <c r="P534">
-        <v>35355</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="535" spans="1:16">
@@ -27182,7 +27182,7 @@
         <v>0.32246949157118732</v>
       </c>
       <c r="P535">
-        <v>35241</v>
+        <v>43115</v>
       </c>
     </row>
     <row r="536" spans="1:16">
@@ -27232,7 +27232,7 @@
         <v>0.19120857284498119</v>
       </c>
       <c r="P536">
-        <v>35118</v>
+        <v>43238</v>
       </c>
     </row>
     <row r="537" spans="1:16">
@@ -27282,7 +27282,7 @@
         <v>0.72723250503195769</v>
       </c>
       <c r="P537">
-        <v>34957</v>
+        <v>43399</v>
       </c>
     </row>
     <row r="538" spans="1:16">
@@ -27332,7 +27332,7 @@
         <v>0.6729744829745975</v>
       </c>
       <c r="P538">
-        <v>34836</v>
+        <v>43520</v>
       </c>
     </row>
     <row r="539" spans="1:16">
@@ -27382,7 +27382,7 @@
         <v>0.54002679444612822</v>
       </c>
       <c r="P539">
-        <v>34724</v>
+        <v>43632</v>
       </c>
     </row>
     <row r="540" spans="1:16">
@@ -27432,7 +27432,7 @@
         <v>0.49900014357416772</v>
       </c>
       <c r="P540">
-        <v>34610</v>
+        <v>43746</v>
       </c>
     </row>
     <row r="541" spans="1:16">
@@ -27482,7 +27482,7 @@
         <v>0.53840306592156995</v>
       </c>
       <c r="P541">
-        <v>34494</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="542" spans="1:16">
@@ -27532,7 +27532,7 @@
         <v>0.46859054877914658</v>
       </c>
       <c r="P542">
-        <v>34378</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="543" spans="1:16">
@@ -27582,7 +27582,7 @@
         <v>0.43305639072078839</v>
       </c>
       <c r="P543">
-        <v>34265</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="544" spans="1:16">
@@ -27632,7 +27632,7 @@
         <v>0.39211312846425078</v>
       </c>
       <c r="P544">
-        <v>34154</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="545" spans="1:16">
@@ -27682,7 +27682,7 @@
         <v>0.56826647346203207</v>
       </c>
       <c r="P545">
-        <v>34037</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="546" spans="1:16">
@@ -27732,7 +27732,7 @@
         <v>0.56826647346203207</v>
       </c>
       <c r="P546">
-        <v>33924</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="547" spans="1:16">
@@ -27782,7 +27782,7 @@
         <v>0.39061855164114773</v>
       </c>
       <c r="P547">
-        <v>33813</v>
+        <v>44543</v>
       </c>
     </row>
     <row r="548" spans="1:16">
@@ -27832,7 +27832,7 @@
         <v>0.39061855164114773</v>
       </c>
       <c r="P548">
-        <v>33812</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="549" spans="1:16">
@@ -27882,7 +27882,7 @@
         <v>0.24952217708420871</v>
       </c>
       <c r="P549">
-        <v>33585</v>
+        <v>44771</v>
       </c>
     </row>
     <row r="550" spans="1:16">
@@ -27932,7 +27932,7 @@
         <v>0.2358819100638796</v>
       </c>
       <c r="P550">
-        <v>33470</v>
+        <v>44886</v>
       </c>
     </row>
     <row r="551" spans="1:16">
@@ -27982,7 +27982,7 @@
         <v>0.1862720776423184</v>
       </c>
       <c r="P551">
-        <v>33359</v>
+        <v>44997</v>
       </c>
     </row>
     <row r="552" spans="1:16">
@@ -28032,7 +28032,7 @@
         <v>6.1546306481844157E-2</v>
       </c>
       <c r="P552">
-        <v>33242</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="553" spans="1:16">
@@ -28082,7 +28082,7 @@
         <v>0.39690926376398328</v>
       </c>
       <c r="P553">
-        <v>33127</v>
+        <v>45229</v>
       </c>
     </row>
     <row r="554" spans="1:16">
@@ -28132,7 +28132,7 @@
         <v>0.62202928376193345</v>
       </c>
       <c r="P554">
-        <v>32900</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="555" spans="1:16">
@@ -28182,7 +28182,7 @@
         <v>0.64883283437678785</v>
       </c>
       <c r="P555">
-        <v>32789</v>
+        <v>45567</v>
       </c>
     </row>
     <row r="556" spans="1:16">
@@ -28232,7 +28232,7 @@
         <v>0.51499249006061154</v>
       </c>
       <c r="P556">
-        <v>32680</v>
+        <v>45676</v>
       </c>
     </row>
     <row r="557" spans="1:16">
@@ -28282,7 +28282,7 @@
         <v>0.37886003381655042</v>
       </c>
       <c r="P557">
-        <v>32570</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="558" spans="1:16">
@@ -28332,7 +28332,7 @@
         <v>0.28712642365805219</v>
       </c>
       <c r="P558">
-        <v>32456</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="559" spans="1:16">
@@ -28382,7 +28382,7 @@
         <v>0.55212183525640424</v>
       </c>
       <c r="P559">
-        <v>32351</v>
+        <v>46005</v>
       </c>
     </row>
     <row r="560" spans="1:16">
@@ -28432,7 +28432,7 @@
         <v>0.64224279934026873</v>
       </c>
       <c r="P560">
-        <v>32244</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="561" spans="1:16">
@@ -28482,7 +28482,7 @@
         <v>0.41392196659914049</v>
       </c>
       <c r="P561">
-        <v>32139</v>
+        <v>46217</v>
       </c>
     </row>
     <row r="562" spans="1:16">
@@ -28532,7 +28532,7 @@
         <v>0.31040902006794718</v>
       </c>
       <c r="P562">
-        <v>32031</v>
+        <v>46325</v>
       </c>
     </row>
     <row r="563" spans="1:16">
@@ -28582,7 +28582,7 @@
         <v>0.37582668884010451</v>
       </c>
       <c r="P563">
-        <v>31925</v>
+        <v>46431</v>
       </c>
     </row>
     <row r="564" spans="1:16">
@@ -28632,7 +28632,7 @@
         <v>0.37226310557895742</v>
       </c>
       <c r="P564">
-        <v>31925</v>
+        <v>46431</v>
       </c>
     </row>
     <row r="565" spans="1:16">
@@ -28682,7 +28682,7 @@
         <v>0.36329206941721109</v>
       </c>
       <c r="P565">
-        <v>31706</v>
+        <v>46650</v>
       </c>
     </row>
     <row r="566" spans="1:16">
@@ -28732,7 +28732,7 @@
         <v>0.40440642150813139</v>
       </c>
       <c r="P566">
-        <v>31597</v>
+        <v>46759</v>
       </c>
     </row>
     <row r="567" spans="1:16">
@@ -28782,7 +28782,7 @@
         <v>0.56453583760803172</v>
       </c>
       <c r="P567">
-        <v>31374</v>
+        <v>46982</v>
       </c>
     </row>
     <row r="568" spans="1:16">
@@ -28832,7 +28832,7 @@
         <v>0.70449094991493677</v>
       </c>
       <c r="P568">
-        <v>31253</v>
+        <v>47103</v>
       </c>
     </row>
     <row r="569" spans="1:16">
@@ -28882,7 +28882,7 @@
         <v>0.70449094991493677</v>
       </c>
       <c r="P569">
-        <v>31252</v>
+        <v>47104</v>
       </c>
     </row>
     <row r="570" spans="1:16">
@@ -28932,7 +28932,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P570">
-        <v>31132</v>
+        <v>47224</v>
       </c>
     </row>
     <row r="571" spans="1:16">
@@ -28982,7 +28982,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P571">
-        <v>31023</v>
+        <v>47333</v>
       </c>
     </row>
     <row r="572" spans="1:16">
@@ -29032,7 +29032,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P572">
-        <v>30915</v>
+        <v>47441</v>
       </c>
     </row>
     <row r="573" spans="1:16">
@@ -29082,7 +29082,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P573">
-        <v>30808</v>
+        <v>47548</v>
       </c>
     </row>
     <row r="574" spans="1:16">
@@ -29132,7 +29132,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P574">
-        <v>30594</v>
+        <v>47762</v>
       </c>
     </row>
     <row r="575" spans="1:16">
@@ -29182,7 +29182,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P575">
-        <v>30489</v>
+        <v>47867</v>
       </c>
     </row>
     <row r="576" spans="1:16">
@@ -29232,7 +29232,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P576">
-        <v>30488</v>
+        <v>47868</v>
       </c>
     </row>
     <row r="577" spans="1:16">
@@ -29282,7 +29282,7 @@
         <v>0.78476285840832827</v>
       </c>
       <c r="P577">
-        <v>30383</v>
+        <v>47973</v>
       </c>
     </row>
     <row r="578" spans="1:16">
@@ -29332,7 +29332,7 @@
         <v>0.56608817681151047</v>
       </c>
       <c r="P578">
-        <v>30279</v>
+        <v>48077</v>
       </c>
     </row>
     <row r="579" spans="1:16">
@@ -29382,7 +29382,7 @@
         <v>0.43742866894659799</v>
       </c>
       <c r="P579">
-        <v>30177</v>
+        <v>48179</v>
       </c>
     </row>
     <row r="580" spans="1:16">
@@ -29432,7 +29432,7 @@
         <v>0.2507659894741206</v>
       </c>
       <c r="P580">
-        <v>30075</v>
+        <v>48281</v>
       </c>
     </row>
     <row r="581" spans="1:16">
@@ -29482,7 +29482,7 @@
         <v>0.35576136518820778</v>
       </c>
       <c r="P581">
-        <v>29973</v>
+        <v>48383</v>
       </c>
     </row>
     <row r="582" spans="1:16">
@@ -29532,7 +29532,7 @@
         <v>0.56982328460188303</v>
       </c>
       <c r="P582">
-        <v>29869</v>
+        <v>48487</v>
       </c>
     </row>
     <row r="583" spans="1:16">
@@ -29582,7 +29582,7 @@
         <v>0.68274652017959958</v>
       </c>
       <c r="P583">
-        <v>29767</v>
+        <v>48589</v>
       </c>
     </row>
     <row r="584" spans="1:16">
@@ -29632,7 +29632,7 @@
         <v>0.46512045623013981</v>
       </c>
       <c r="P584">
-        <v>29662</v>
+        <v>48694</v>
       </c>
     </row>
     <row r="585" spans="1:16">
@@ -29682,7 +29682,7 @@
         <v>0.34746983974245171</v>
       </c>
       <c r="P585">
-        <v>29563</v>
+        <v>48793</v>
       </c>
     </row>
     <row r="586" spans="1:16">
@@ -29732,7 +29732,7 @@
         <v>0.62222432715277542</v>
       </c>
       <c r="P586">
-        <v>29461</v>
+        <v>48895</v>
       </c>
     </row>
     <row r="587" spans="1:16">
@@ -29782,7 +29782,7 @@
         <v>0.71211117899940524</v>
       </c>
       <c r="P587">
-        <v>29355</v>
+        <v>49001</v>
       </c>
     </row>
     <row r="588" spans="1:16">
@@ -29832,7 +29832,7 @@
         <v>0.63482163578129902</v>
       </c>
       <c r="P588">
-        <v>29258</v>
+        <v>49098</v>
       </c>
     </row>
     <row r="589" spans="1:16">
@@ -29882,7 +29882,7 @@
         <v>0.43831294253782171</v>
       </c>
       <c r="P589">
-        <v>29161</v>
+        <v>49195</v>
       </c>
     </row>
     <row r="590" spans="1:16">
@@ -29932,7 +29932,7 @@
         <v>0.43362301850839841</v>
       </c>
       <c r="P590">
-        <v>29161</v>
+        <v>49195</v>
       </c>
     </row>
     <row r="591" spans="1:16">
@@ -29982,7 +29982,7 @@
         <v>0.40274637443093109</v>
       </c>
       <c r="P591">
-        <v>29060</v>
+        <v>49296</v>
       </c>
     </row>
     <row r="592" spans="1:16">
@@ -30032,7 +30032,7 @@
         <v>0.55140099699139211</v>
       </c>
       <c r="P592">
-        <v>28963</v>
+        <v>49393</v>
       </c>
     </row>
     <row r="593" spans="1:16">
@@ -30082,7 +30082,7 @@
         <v>0.36279291545454689</v>
       </c>
       <c r="P593">
-        <v>28867</v>
+        <v>49489</v>
       </c>
     </row>
     <row r="594" spans="1:16">
@@ -30132,7 +30132,7 @@
         <v>0.145195773068587</v>
       </c>
       <c r="P594">
-        <v>28769</v>
+        <v>49587</v>
       </c>
     </row>
     <row r="595" spans="1:16">
@@ -30182,7 +30182,7 @@
         <v>6.0537656310427977E-2</v>
       </c>
       <c r="P595">
-        <v>28673</v>
+        <v>49683</v>
       </c>
     </row>
     <row r="596" spans="1:16">
@@ -30232,7 +30232,7 @@
         <v>0.14130002940016129</v>
       </c>
       <c r="P596">
-        <v>28576</v>
+        <v>49780</v>
       </c>
     </row>
     <row r="597" spans="1:16">
@@ -30282,7 +30282,7 @@
         <v>0.28247554771354039</v>
       </c>
       <c r="P597">
-        <v>28479</v>
+        <v>49877</v>
       </c>
     </row>
     <row r="598" spans="1:16">
@@ -30332,7 +30332,7 @@
         <v>0.41607887286800749</v>
       </c>
       <c r="P598">
-        <v>28387</v>
+        <v>49969</v>
       </c>
     </row>
     <row r="599" spans="1:16">
@@ -30382,7 +30382,7 @@
         <v>0.54250043508817802</v>
       </c>
       <c r="P599">
-        <v>28294</v>
+        <v>50062</v>
       </c>
     </row>
     <row r="600" spans="1:16">
@@ -30432,7 +30432,7 @@
         <v>0.48344486239526951</v>
       </c>
       <c r="P600">
-        <v>28202</v>
+        <v>50154</v>
       </c>
     </row>
     <row r="601" spans="1:16">
@@ -30482,7 +30482,7 @@
         <v>0.42221088137832552</v>
       </c>
       <c r="P601">
-        <v>28111</v>
+        <v>50245</v>
       </c>
     </row>
     <row r="602" spans="1:16">
@@ -30532,7 +30532,7 @@
         <v>0.40682916339135228</v>
       </c>
       <c r="P602">
-        <v>28021</v>
+        <v>50335</v>
       </c>
     </row>
     <row r="603" spans="1:16">
@@ -30582,7 +30582,7 @@
         <v>0.38035326347877219</v>
       </c>
       <c r="P603">
-        <v>27927</v>
+        <v>50429</v>
       </c>
     </row>
     <row r="604" spans="1:16">
@@ -30632,7 +30632,7 @@
         <v>0.36901279627244538</v>
       </c>
       <c r="P604">
-        <v>27824</v>
+        <v>50532</v>
       </c>
     </row>
     <row r="605" spans="1:16">
@@ -30682,7 +30682,7 @@
         <v>0.55915901800240853</v>
       </c>
       <c r="P605">
-        <v>27539</v>
+        <v>50817</v>
       </c>
     </row>
     <row r="606" spans="1:16">
@@ -30732,7 +30732,7 @@
         <v>0.52010427780249024</v>
       </c>
       <c r="P606">
-        <v>27365</v>
+        <v>50991</v>
       </c>
     </row>
     <row r="607" spans="1:16">
@@ -30782,7 +30782,7 @@
         <v>0.46756480082128993</v>
       </c>
       <c r="P607">
-        <v>27276</v>
+        <v>51080</v>
       </c>
     </row>
     <row r="608" spans="1:16">
@@ -30832,7 +30832,7 @@
         <v>0.35372675661512298</v>
       </c>
       <c r="P608">
-        <v>27187</v>
+        <v>51169</v>
       </c>
     </row>
     <row r="609" spans="1:16">
@@ -30882,7 +30882,7 @@
         <v>0.28350524063912208</v>
       </c>
       <c r="P609">
-        <v>27095</v>
+        <v>51261</v>
       </c>
     </row>
     <row r="610" spans="1:16">
@@ -30932,7 +30932,7 @@
         <v>0.72836104107185939</v>
       </c>
       <c r="P610">
-        <v>27006</v>
+        <v>51350</v>
       </c>
     </row>
     <row r="611" spans="1:16">
@@ -30982,7 +30982,7 @@
         <v>0.96092388758268554</v>
       </c>
       <c r="P611">
-        <v>26916</v>
+        <v>51440</v>
       </c>
     </row>
     <row r="612" spans="1:16">
@@ -31032,7 +31032,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P612">
-        <v>26740</v>
+        <v>51616</v>
       </c>
     </row>
     <row r="613" spans="1:16">
@@ -31082,7 +31082,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P613">
-        <v>26657</v>
+        <v>51699</v>
       </c>
     </row>
     <row r="614" spans="1:16">
@@ -31132,7 +31132,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P614">
-        <v>26566</v>
+        <v>51790</v>
       </c>
     </row>
     <row r="615" spans="1:16">
@@ -31182,7 +31182,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P615">
-        <v>26479</v>
+        <v>51877</v>
       </c>
     </row>
     <row r="616" spans="1:16">
@@ -31232,7 +31232,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P616">
-        <v>26306</v>
+        <v>52050</v>
       </c>
     </row>
     <row r="617" spans="1:16">
@@ -31282,7 +31282,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P617">
-        <v>26222</v>
+        <v>52134</v>
       </c>
     </row>
     <row r="618" spans="1:16">
@@ -31332,7 +31332,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P618">
-        <v>26137</v>
+        <v>52219</v>
       </c>
     </row>
     <row r="619" spans="1:16">
@@ -31382,7 +31382,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P619">
-        <v>26048</v>
+        <v>52308</v>
       </c>
     </row>
     <row r="620" spans="1:16">
@@ -31432,7 +31432,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P620">
-        <v>25962</v>
+        <v>52394</v>
       </c>
     </row>
     <row r="621" spans="1:16">
@@ -31482,7 +31482,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P621">
-        <v>25878</v>
+        <v>52478</v>
       </c>
     </row>
     <row r="622" spans="1:16">
@@ -31532,7 +31532,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P622">
-        <v>25794</v>
+        <v>52562</v>
       </c>
     </row>
     <row r="623" spans="1:16">
@@ -31582,7 +31582,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P623">
-        <v>25711</v>
+        <v>52645</v>
       </c>
     </row>
     <row r="624" spans="1:16">
@@ -31632,7 +31632,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P624">
-        <v>25630</v>
+        <v>52726</v>
       </c>
     </row>
     <row r="625" spans="1:16">
@@ -31682,7 +31682,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P625">
-        <v>25547</v>
+        <v>52809</v>
       </c>
     </row>
     <row r="626" spans="1:16">
@@ -31732,7 +31732,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P626">
-        <v>25468</v>
+        <v>52888</v>
       </c>
     </row>
     <row r="627" spans="1:16">
@@ -31782,7 +31782,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P627">
-        <v>25386</v>
+        <v>52970</v>
       </c>
     </row>
     <row r="628" spans="1:16">
@@ -31832,7 +31832,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P628">
-        <v>25302</v>
+        <v>53054</v>
       </c>
     </row>
     <row r="629" spans="1:16">
@@ -31882,7 +31882,7 @@
         <v>0.96115333873741715</v>
       </c>
       <c r="P629">
-        <v>25302</v>
+        <v>53054</v>
       </c>
     </row>
     <row r="630" spans="1:16">
@@ -31932,7 +31932,7 @@
         <v>0.81982721843125861</v>
       </c>
       <c r="P630">
-        <v>25219</v>
+        <v>53137</v>
       </c>
     </row>
     <row r="631" spans="1:16">
@@ -31982,7 +31982,7 @@
         <v>0.83948181752679629</v>
       </c>
       <c r="P631">
-        <v>25138</v>
+        <v>53218</v>
       </c>
     </row>
     <row r="632" spans="1:16">
@@ -32032,7 +32032,7 @@
         <v>0.56694619420273362</v>
       </c>
       <c r="P632">
-        <v>25060</v>
+        <v>53296</v>
       </c>
     </row>
     <row r="633" spans="1:16">
@@ -32082,7 +32082,7 @@
         <v>0.27804980359556092</v>
       </c>
       <c r="P633">
-        <v>24979</v>
+        <v>53377</v>
       </c>
     </row>
     <row r="634" spans="1:16">
@@ -32132,7 +32132,7 @@
         <v>0.28305186820754691</v>
       </c>
       <c r="P634">
-        <v>24899</v>
+        <v>53457</v>
       </c>
     </row>
     <row r="635" spans="1:16">
@@ -32182,7 +32182,7 @@
         <v>0.41332137184501222</v>
       </c>
       <c r="P635">
-        <v>24818</v>
+        <v>53538</v>
       </c>
     </row>
     <row r="636" spans="1:16">
@@ -32232,7 +32232,7 @@
         <v>0.35058414966386098</v>
       </c>
       <c r="P636">
-        <v>24740</v>
+        <v>53616</v>
       </c>
     </row>
     <row r="637" spans="1:16">
@@ -32282,7 +32282,7 @@
         <v>0.4760934917259449</v>
       </c>
       <c r="P637">
-        <v>24659</v>
+        <v>53697</v>
       </c>
     </row>
     <row r="638" spans="1:16">
@@ -32332,7 +32332,7 @@
         <v>0.45001851449406272</v>
       </c>
       <c r="P638">
-        <v>24583</v>
+        <v>53773</v>
       </c>
     </row>
     <row r="639" spans="1:16">
@@ -32382,7 +32382,7 @@
         <v>0.42288578935255638</v>
       </c>
       <c r="P639">
-        <v>24505</v>
+        <v>53851</v>
       </c>
     </row>
     <row r="640" spans="1:16">
@@ -32432,7 +32432,7 @@
         <v>0.38237990986436698</v>
       </c>
       <c r="P640">
-        <v>24427</v>
+        <v>53929</v>
       </c>
     </row>
     <row r="641" spans="1:16">
@@ -32482,7 +32482,7 @@
         <v>0.55152421117176564</v>
       </c>
       <c r="P641">
-        <v>24351</v>
+        <v>54005</v>
       </c>
     </row>
     <row r="642" spans="1:16">
@@ -32532,7 +32532,7 @@
         <v>0.53584932466862478</v>
       </c>
       <c r="P642">
-        <v>24274</v>
+        <v>54082</v>
       </c>
     </row>
     <row r="643" spans="1:16">
@@ -32582,7 +32582,7 @@
         <v>0.50182573961952237</v>
       </c>
       <c r="P643">
-        <v>24199</v>
+        <v>54157</v>
       </c>
     </row>
     <row r="644" spans="1:16">
@@ -32632,7 +32632,7 @@
         <v>0.29216779210479621</v>
       </c>
       <c r="P644">
-        <v>24126</v>
+        <v>54230</v>
       </c>
     </row>
     <row r="645" spans="1:16">
@@ -32682,7 +32682,7 @@
         <v>0.23039522806639079</v>
       </c>
       <c r="P645">
-        <v>24047</v>
+        <v>54309</v>
       </c>
     </row>
     <row r="646" spans="1:16">
@@ -32732,7 +32732,7 @@
         <v>0.20970917033815231</v>
       </c>
       <c r="P646">
-        <v>23974</v>
+        <v>54382</v>
       </c>
     </row>
     <row r="647" spans="1:16">
@@ -32782,7 +32782,7 @@
         <v>0.2147134584689325</v>
       </c>
       <c r="P647">
-        <v>23900</v>
+        <v>54456</v>
       </c>
     </row>
     <row r="648" spans="1:16">
@@ -32832,7 +32832,7 @@
         <v>0.1364285083514255</v>
       </c>
       <c r="P648">
-        <v>23823</v>
+        <v>54533</v>
       </c>
     </row>
     <row r="649" spans="1:16">
@@ -32882,7 +32882,7 @@
         <v>5.8955164899725278E-2</v>
       </c>
       <c r="P649">
-        <v>23748</v>
+        <v>54608</v>
       </c>
     </row>
     <row r="650" spans="1:16">
@@ -32932,7 +32932,7 @@
         <v>0.35107198576207882</v>
       </c>
       <c r="P650">
-        <v>23675</v>
+        <v>54681</v>
       </c>
     </row>
     <row r="651" spans="1:16">
@@ -32982,7 +32982,7 @@
         <v>0.4909385154803087</v>
       </c>
       <c r="P651">
-        <v>23600</v>
+        <v>54756</v>
       </c>
     </row>
     <row r="652" spans="1:16">
@@ -33032,7 +33032,7 @@
         <v>0.60592219407410097</v>
       </c>
       <c r="P652">
-        <v>23526</v>
+        <v>54830</v>
       </c>
     </row>
     <row r="653" spans="1:16">
@@ -33082,7 +33082,7 @@
         <v>0.44256488059432131</v>
       </c>
       <c r="P653">
-        <v>23453</v>
+        <v>54903</v>
       </c>
     </row>
     <row r="654" spans="1:16">
@@ -33132,7 +33132,7 @@
         <v>0.32952097857593138</v>
       </c>
       <c r="P654">
-        <v>23381</v>
+        <v>54975</v>
       </c>
     </row>
     <row r="655" spans="1:16">
@@ -33182,7 +33182,7 @@
         <v>0.33284563032844888</v>
       </c>
       <c r="P655">
-        <v>23381</v>
+        <v>54975</v>
       </c>
     </row>
     <row r="656" spans="1:16">
@@ -33232,7 +33232,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P656">
-        <v>23225</v>
+        <v>55131</v>
       </c>
     </row>
     <row r="657" spans="1:16">
@@ -33282,7 +33282,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P657">
-        <v>23154</v>
+        <v>55202</v>
       </c>
     </row>
     <row r="658" spans="1:16">
@@ -33332,7 +33332,7 @@
         <v>0.28867935545100898</v>
       </c>
       <c r="P658">
-        <v>23083</v>
+        <v>55273</v>
       </c>
     </row>
     <row r="659" spans="1:16">
@@ -33382,7 +33382,7 @@
         <v>0.28867935545100898</v>
       </c>
       <c r="P659">
-        <v>23013</v>
+        <v>55343</v>
       </c>
     </row>
     <row r="660" spans="1:16">
@@ -33432,7 +33432,7 @@
         <v>0.28867935545100898</v>
       </c>
       <c r="P660">
-        <v>22939</v>
+        <v>55417</v>
       </c>
     </row>
     <row r="661" spans="1:16">
@@ -33482,7 +33482,7 @@
         <v>0.28867935545100898</v>
       </c>
       <c r="P661">
-        <v>22868</v>
+        <v>55488</v>
       </c>
     </row>
     <row r="662" spans="1:16">
@@ -33532,7 +33532,7 @@
         <v>0.28867935545100898</v>
       </c>
       <c r="P662">
-        <v>22868</v>
+        <v>55488</v>
       </c>
     </row>
     <row r="663" spans="1:16">
@@ -33582,7 +33582,7 @@
         <v>0.28574245299925111</v>
       </c>
       <c r="P663">
-        <v>22795</v>
+        <v>55561</v>
       </c>
     </row>
     <row r="664" spans="1:16">
@@ -33632,7 +33632,7 @@
         <v>0.38457364871651728</v>
       </c>
       <c r="P664">
-        <v>22723</v>
+        <v>55633</v>
       </c>
     </row>
     <row r="665" spans="1:16">
@@ -33682,7 +33682,7 @@
         <v>0.48036743508160501</v>
       </c>
       <c r="P665">
-        <v>22651</v>
+        <v>55705</v>
       </c>
     </row>
     <row r="666" spans="1:16">
@@ -33732,7 +33732,7 @@
         <v>0.43559701320847338</v>
       </c>
       <c r="P666">
-        <v>22576</v>
+        <v>55780</v>
       </c>
     </row>
     <row r="667" spans="1:16">
@@ -33782,7 +33782,7 @@
         <v>0.27811448882261153</v>
       </c>
       <c r="P667">
-        <v>22504</v>
+        <v>55852</v>
       </c>
     </row>
     <row r="668" spans="1:16">
@@ -33832,7 +33832,7 @@
         <v>0.33378350471102602</v>
       </c>
       <c r="P668">
-        <v>22434</v>
+        <v>55922</v>
       </c>
     </row>
     <row r="669" spans="1:16">
@@ -33882,7 +33882,7 @@
         <v>0.52755425391811495</v>
       </c>
       <c r="P669">
-        <v>22362</v>
+        <v>55994</v>
       </c>
     </row>
     <row r="670" spans="1:16">
@@ -33932,7 +33932,7 @@
         <v>0.58665301916967916</v>
       </c>
       <c r="P670">
-        <v>22293</v>
+        <v>56063</v>
       </c>
     </row>
     <row r="671" spans="1:16">
@@ -33982,7 +33982,7 @@
         <v>0.45274661761069229</v>
       </c>
       <c r="P671">
-        <v>22221</v>
+        <v>56135</v>
       </c>
     </row>
     <row r="672" spans="1:16">
@@ -34032,7 +34032,7 @@
         <v>0.1979113842527761</v>
       </c>
       <c r="P672">
-        <v>22152</v>
+        <v>56204</v>
       </c>
     </row>
     <row r="673" spans="1:16">
@@ -34082,7 +34082,7 @@
         <v>3.1611908172427587E-2</v>
       </c>
       <c r="P673">
-        <v>22084</v>
+        <v>56272</v>
       </c>
     </row>
     <row r="674" spans="1:16">
@@ -34132,7 +34132,7 @@
         <v>0.190510561869601</v>
       </c>
       <c r="P674">
-        <v>22017</v>
+        <v>56339</v>
       </c>
     </row>
     <row r="675" spans="1:16">
@@ -34182,7 +34182,7 @@
         <v>0.275330533822363</v>
       </c>
       <c r="P675">
-        <v>21950</v>
+        <v>56406</v>
       </c>
     </row>
     <row r="676" spans="1:16">
@@ -34232,7 +34232,7 @@
         <v>0.41362275394377951</v>
       </c>
       <c r="P676">
-        <v>21882</v>
+        <v>56474</v>
       </c>
     </row>
     <row r="677" spans="1:16">
@@ -34282,7 +34282,7 @@
         <v>0.56022162080872417</v>
       </c>
       <c r="P677">
-        <v>21812</v>
+        <v>56544</v>
       </c>
     </row>
     <row r="678" spans="1:16">
@@ -34332,7 +34332,7 @@
         <v>0.56022162080872417</v>
       </c>
       <c r="P678">
-        <v>21745</v>
+        <v>56611</v>
       </c>
     </row>
     <row r="679" spans="1:16">
@@ -34382,7 +34382,7 @@
         <v>0.55304283092947015</v>
       </c>
       <c r="P679">
-        <v>21677</v>
+        <v>56679</v>
       </c>
     </row>
     <row r="680" spans="1:16">
@@ -34432,7 +34432,7 @@
         <v>0.56563679386283972</v>
       </c>
       <c r="P680">
-        <v>21612</v>
+        <v>56744</v>
       </c>
     </row>
     <row r="681" spans="1:16">
@@ -34482,7 +34482,7 @@
         <v>0.53345255653001422</v>
       </c>
       <c r="P681">
-        <v>21551</v>
+        <v>56805</v>
       </c>
     </row>
     <row r="682" spans="1:16">
@@ -34532,7 +34532,7 @@
         <v>0.3903692971830241</v>
       </c>
       <c r="P682">
-        <v>21478</v>
+        <v>56878</v>
       </c>
     </row>
     <row r="683" spans="1:16">
@@ -34582,7 +34582,7 @@
         <v>0.36661264805568411</v>
       </c>
       <c r="P683">
-        <v>21413</v>
+        <v>56943</v>
       </c>
     </row>
     <row r="684" spans="1:16">
@@ -34632,7 +34632,7 @@
         <v>0.37274853196793412</v>
       </c>
       <c r="P684">
-        <v>21348</v>
+        <v>57008</v>
       </c>
     </row>
     <row r="685" spans="1:16">
@@ -34682,7 +34682,7 @@
         <v>0.46606586483906781</v>
       </c>
       <c r="P685">
-        <v>21281</v>
+        <v>57075</v>
       </c>
     </row>
     <row r="686" spans="1:16">
@@ -34732,7 +34732,7 @@
         <v>0.49361540119773412</v>
       </c>
       <c r="P686">
-        <v>21217</v>
+        <v>57139</v>
       </c>
     </row>
     <row r="687" spans="1:16">
@@ -34782,7 +34782,7 @@
         <v>0.4187745833994867</v>
       </c>
       <c r="P687">
-        <v>21151</v>
+        <v>57205</v>
       </c>
     </row>
     <row r="688" spans="1:16">
@@ -34832,7 +34832,7 @@
         <v>0.4187745833994867</v>
       </c>
       <c r="P688">
-        <v>21151</v>
+        <v>57205</v>
       </c>
     </row>
     <row r="689" spans="1:16">
@@ -34882,7 +34882,7 @@
         <v>0.5172950271684621</v>
       </c>
       <c r="P689">
-        <v>21086</v>
+        <v>57270</v>
       </c>
     </row>
     <row r="690" spans="1:16">
@@ -34932,7 +34932,7 @@
         <v>0.51063912258043009</v>
       </c>
       <c r="P690">
-        <v>21021</v>
+        <v>57335</v>
       </c>
     </row>
     <row r="691" spans="1:16">
@@ -34982,7 +34982,7 @@
         <v>0.34059697656704541</v>
       </c>
       <c r="P691">
-        <v>20958</v>
+        <v>57398</v>
       </c>
     </row>
     <row r="692" spans="1:16">
@@ -35032,7 +35032,7 @@
         <v>0.39190892609398292</v>
       </c>
       <c r="P692">
-        <v>20894</v>
+        <v>57462</v>
       </c>
     </row>
     <row r="693" spans="1:16">
@@ -35082,7 +35082,7 @@
         <v>0.39190892609398292</v>
       </c>
       <c r="P693">
-        <v>20894</v>
+        <v>57462</v>
       </c>
     </row>
     <row r="694" spans="1:16">
@@ -35132,7 +35132,7 @@
         <v>0.39214942310072581</v>
       </c>
       <c r="P694">
-        <v>20831</v>
+        <v>57525</v>
       </c>
     </row>
     <row r="695" spans="1:16">
@@ -35182,7 +35182,7 @@
         <v>0.46958548025936558</v>
       </c>
       <c r="P695">
-        <v>20768</v>
+        <v>57588</v>
       </c>
     </row>
     <row r="696" spans="1:16">
@@ -35232,7 +35232,7 @@
         <v>0.44969896644300011</v>
       </c>
       <c r="P696">
-        <v>20704</v>
+        <v>57652</v>
       </c>
     </row>
     <row r="697" spans="1:16">
@@ -35282,7 +35282,7 @@
         <v>0.38943499015779581</v>
       </c>
       <c r="P697">
-        <v>20638</v>
+        <v>57718</v>
       </c>
     </row>
     <row r="698" spans="1:16">
@@ -35332,7 +35332,7 @@
         <v>0.47205525437933238</v>
       </c>
       <c r="P698">
-        <v>20570</v>
+        <v>57786</v>
       </c>
     </row>
     <row r="699" spans="1:16">
@@ -35382,7 +35382,7 @@
         <v>0.46844531098893688</v>
       </c>
       <c r="P699">
-        <v>20508</v>
+        <v>57848</v>
       </c>
     </row>
     <row r="700" spans="1:16">
@@ -35432,7 +35432,7 @@
         <v>0.39211312846425078</v>
       </c>
       <c r="P700">
-        <v>20442</v>
+        <v>57914</v>
       </c>
     </row>
     <row r="701" spans="1:16">
@@ -35482,7 +35482,7 @@
         <v>0.52799951591744099</v>
       </c>
       <c r="P701">
-        <v>20377</v>
+        <v>57979</v>
       </c>
     </row>
     <row r="702" spans="1:16">
@@ -35532,7 +35532,7 @@
         <v>0.47534596762665599</v>
       </c>
       <c r="P702">
-        <v>20314</v>
+        <v>58042</v>
       </c>
     </row>
     <row r="703" spans="1:16">
@@ -35582,7 +35582,7 @@
         <v>0.45815065555247519</v>
       </c>
       <c r="P703">
-        <v>20250</v>
+        <v>58106</v>
       </c>
     </row>
     <row r="704" spans="1:16">
@@ -35632,7 +35632,7 @@
         <v>0.33606707460104329</v>
       </c>
       <c r="P704">
-        <v>20186</v>
+        <v>58170</v>
       </c>
     </row>
     <row r="705" spans="1:16">
@@ -35682,7 +35682,7 @@
         <v>0.38956344617441913</v>
       </c>
       <c r="P705">
-        <v>20119</v>
+        <v>58237</v>
       </c>
     </row>
     <row r="706" spans="1:16">
@@ -35732,7 +35732,7 @@
         <v>0.30376901401529172</v>
       </c>
       <c r="P706">
-        <v>20055</v>
+        <v>58301</v>
       </c>
     </row>
     <row r="707" spans="1:16">
@@ -35782,7 +35782,7 @@
         <v>0.26370676302729301</v>
       </c>
       <c r="P707">
-        <v>19990</v>
+        <v>58366</v>
       </c>
     </row>
     <row r="708" spans="1:16">
@@ -35832,7 +35832,7 @@
         <v>0.19600880394885331</v>
       </c>
       <c r="P708">
-        <v>19925</v>
+        <v>58431</v>
       </c>
     </row>
     <row r="709" spans="1:16">
@@ -35882,7 +35882,7 @@
         <v>0.1754099664767852</v>
       </c>
       <c r="P709">
-        <v>19860</v>
+        <v>58496</v>
       </c>
     </row>
     <row r="710" spans="1:16">
@@ -35932,7 +35932,7 @@
         <v>0.15449500789379089</v>
       </c>
       <c r="P710">
-        <v>19800</v>
+        <v>58556</v>
       </c>
     </row>
     <row r="711" spans="1:16">
@@ -35982,7 +35982,7 @@
         <v>0.20925129653797811</v>
       </c>
       <c r="P711">
-        <v>19730</v>
+        <v>58626</v>
       </c>
     </row>
     <row r="712" spans="1:16">
@@ -36032,7 +36032,7 @@
         <v>0.36072829735646761</v>
       </c>
       <c r="P712">
-        <v>19665</v>
+        <v>58691</v>
       </c>
     </row>
     <row r="713" spans="1:16">
@@ -36082,7 +36082,7 @@
         <v>0.44586069156930619</v>
       </c>
       <c r="P713">
-        <v>19601</v>
+        <v>58755</v>
       </c>
     </row>
     <row r="714" spans="1:16">
@@ -36132,7 +36132,7 @@
         <v>0.57974838615857027</v>
       </c>
       <c r="P714">
-        <v>19538</v>
+        <v>58818</v>
       </c>
     </row>
     <row r="715" spans="1:16">
@@ -36182,7 +36182,7 @@
         <v>0.6426984624182952</v>
       </c>
       <c r="P715">
-        <v>19409</v>
+        <v>58947</v>
       </c>
     </row>
     <row r="716" spans="1:16">
@@ -36232,7 +36232,7 @@
         <v>0.41062472472518541</v>
       </c>
       <c r="P716">
-        <v>19280</v>
+        <v>59076</v>
       </c>
     </row>
     <row r="717" spans="1:16">
@@ -36282,7 +36282,7 @@
         <v>0.30131815557317032</v>
       </c>
       <c r="P717">
-        <v>19216</v>
+        <v>59140</v>
       </c>
     </row>
     <row r="718" spans="1:16">
@@ -36332,7 +36332,7 @@
         <v>0.46076625300058588</v>
       </c>
       <c r="P718">
-        <v>19151</v>
+        <v>59205</v>
       </c>
     </row>
     <row r="719" spans="1:16">
@@ -36382,7 +36382,7 @@
         <v>0.64959688833645135</v>
       </c>
       <c r="P719">
-        <v>19087</v>
+        <v>59269</v>
       </c>
     </row>
     <row r="720" spans="1:16">
@@ -36432,7 +36432,7 @@
         <v>0.57057280717301229</v>
       </c>
       <c r="P720">
-        <v>19023</v>
+        <v>59333</v>
       </c>
     </row>
     <row r="721" spans="1:16">
@@ -36482,7 +36482,7 @@
         <v>0.44857252288201199</v>
       </c>
       <c r="P721">
-        <v>18959</v>
+        <v>59397</v>
       </c>
     </row>
     <row r="722" spans="1:16">
@@ -36532,7 +36532,7 @@
         <v>0.32254293750511659</v>
       </c>
       <c r="P722">
-        <v>18894</v>
+        <v>59462</v>
       </c>
     </row>
     <row r="723" spans="1:16">
@@ -36582,7 +36582,7 @@
         <v>0.31215828472252383</v>
       </c>
       <c r="P723">
-        <v>18832</v>
+        <v>59524</v>
       </c>
     </row>
     <row r="724" spans="1:16">
@@ -36632,7 +36632,7 @@
         <v>0.46359069562459942</v>
       </c>
       <c r="P724">
-        <v>18767</v>
+        <v>59589</v>
       </c>
     </row>
     <row r="725" spans="1:16">
@@ -36682,7 +36682,7 @@
         <v>0.52630581977854685</v>
       </c>
       <c r="P725">
-        <v>18705</v>
+        <v>59651</v>
       </c>
     </row>
     <row r="726" spans="1:16">
@@ -36732,7 +36732,7 @@
         <v>0.81250731110832197</v>
       </c>
       <c r="P726">
-        <v>18642</v>
+        <v>59714</v>
       </c>
     </row>
     <row r="727" spans="1:16">
@@ -36782,7 +36782,7 @@
         <v>0.57451976538714489</v>
       </c>
       <c r="P727">
-        <v>18575</v>
+        <v>59781</v>
       </c>
     </row>
     <row r="728" spans="1:16">
@@ -36832,7 +36832,7 @@
         <v>0.57451976538714489</v>
       </c>
       <c r="P728">
-        <v>18575</v>
+        <v>59781</v>
       </c>
     </row>
     <row r="729" spans="1:16">
@@ -36882,7 +36882,7 @@
         <v>0.38820271534670647</v>
       </c>
       <c r="P729">
-        <v>18312</v>
+        <v>60044</v>
       </c>
     </row>
     <row r="730" spans="1:16">
@@ -36932,7 +36932,7 @@
         <v>0.37266070163805448</v>
       </c>
       <c r="P730">
-        <v>18250</v>
+        <v>60106</v>
       </c>
     </row>
     <row r="731" spans="1:16">
@@ -36982,7 +36982,7 @@
         <v>0.37926987169333992</v>
       </c>
       <c r="P731">
-        <v>18124</v>
+        <v>60232</v>
       </c>
     </row>
     <row r="732" spans="1:16">
@@ -37032,7 +37032,7 @@
         <v>0.20363118773139829</v>
       </c>
       <c r="P732">
-        <v>18057</v>
+        <v>60299</v>
       </c>
     </row>
     <row r="733" spans="1:16">
@@ -37082,7 +37082,7 @@
         <v>0.37841076274487928</v>
       </c>
       <c r="P733">
-        <v>17990</v>
+        <v>60366</v>
       </c>
     </row>
     <row r="734" spans="1:16">
@@ -37132,7 +37132,7 @@
         <v>0.47725924918772888</v>
       </c>
       <c r="P734">
-        <v>17924</v>
+        <v>60432</v>
       </c>
     </row>
     <row r="735" spans="1:16">
@@ -37182,7 +37182,7 @@
         <v>0.47725924918772888</v>
       </c>
       <c r="P735">
-        <v>17857</v>
+        <v>60499</v>
       </c>
     </row>
     <row r="736" spans="1:16">
@@ -37232,7 +37232,7 @@
         <v>0.47725924918772888</v>
       </c>
       <c r="P736">
-        <v>17791</v>
+        <v>60565</v>
       </c>
     </row>
     <row r="737" spans="1:16">
@@ -37282,7 +37282,7 @@
         <v>0.47725924918772888</v>
       </c>
       <c r="P737">
-        <v>17725</v>
+        <v>60631</v>
       </c>
     </row>
     <row r="738" spans="1:16">
@@ -37332,7 +37332,7 @@
         <v>0.47754079516389231</v>
       </c>
       <c r="P738">
-        <v>17660</v>
+        <v>60696</v>
       </c>
     </row>
     <row r="739" spans="1:16">
@@ -37382,7 +37382,7 @@
         <v>0.47754079516389231</v>
       </c>
       <c r="P739">
-        <v>17594</v>
+        <v>60762</v>
       </c>
     </row>
     <row r="740" spans="1:16">
@@ -37432,7 +37432,7 @@
         <v>0.47754079516389231</v>
       </c>
       <c r="P740">
-        <v>17594</v>
+        <v>60762</v>
       </c>
     </row>
     <row r="741" spans="1:16">
@@ -37482,7 +37482,7 @@
         <v>0.46636414525115449</v>
       </c>
       <c r="P741">
-        <v>17523</v>
+        <v>60833</v>
       </c>
     </row>
     <row r="742" spans="1:16">
@@ -37532,7 +37532,7 @@
         <v>0.32935642624356443</v>
       </c>
       <c r="P742">
-        <v>17452</v>
+        <v>60904</v>
       </c>
     </row>
     <row r="743" spans="1:16">
@@ -37582,7 +37582,7 @@
         <v>0.32424516742842913</v>
       </c>
       <c r="P743">
-        <v>17381</v>
+        <v>60975</v>
       </c>
     </row>
     <row r="744" spans="1:16">
@@ -37632,7 +37632,7 @@
         <v>0.39567386608129629</v>
       </c>
       <c r="P744">
-        <v>17309</v>
+        <v>61047</v>
       </c>
     </row>
     <row r="745" spans="1:16">
@@ -37682,7 +37682,7 @@
         <v>0.4136058806517342</v>
       </c>
       <c r="P745">
-        <v>17238</v>
+        <v>61118</v>
       </c>
     </row>
     <row r="746" spans="1:16">
@@ -37732,7 +37732,7 @@
         <v>0.38111636258874848</v>
       </c>
       <c r="P746">
-        <v>17172</v>
+        <v>61184</v>
       </c>
     </row>
     <row r="747" spans="1:16">
@@ -37782,7 +37782,7 @@
         <v>0.31215780146882438</v>
       </c>
       <c r="P747">
-        <v>17098</v>
+        <v>61258</v>
       </c>
     </row>
     <row r="748" spans="1:16">
@@ -37832,7 +37832,7 @@
         <v>0.42290228442270072</v>
       </c>
       <c r="P748">
-        <v>17031</v>
+        <v>61325</v>
       </c>
     </row>
     <row r="749" spans="1:16">
@@ -37882,7 +37882,7 @@
         <v>0.73065900538065265</v>
       </c>
       <c r="P749">
-        <v>16963</v>
+        <v>61393</v>
       </c>
     </row>
     <row r="750" spans="1:16">
@@ -37932,7 +37932,7 @@
         <v>0.39932907004258661</v>
       </c>
       <c r="P750">
-        <v>16827</v>
+        <v>61529</v>
       </c>
     </row>
     <row r="751" spans="1:16">
@@ -37982,7 +37982,7 @@
         <v>0.30954546730718119</v>
       </c>
       <c r="P751">
-        <v>16761</v>
+        <v>61595</v>
       </c>
     </row>
     <row r="752" spans="1:16">
@@ -38032,7 +38032,7 @@
         <v>0.3745954178816393</v>
       </c>
       <c r="P752">
-        <v>16694</v>
+        <v>61662</v>
       </c>
     </row>
     <row r="753" spans="1:16">
@@ -38082,7 +38082,7 @@
         <v>0.65209992681629902</v>
       </c>
       <c r="P753">
-        <v>16626</v>
+        <v>61730</v>
       </c>
     </row>
     <row r="754" spans="1:16">
@@ -38132,7 +38132,7 @@
         <v>0.71820533254340324</v>
       </c>
       <c r="P754">
-        <v>16558</v>
+        <v>61798</v>
       </c>
     </row>
     <row r="755" spans="1:16">
@@ -38182,7 +38182,7 @@
         <v>0.65681723240334455</v>
       </c>
       <c r="P755">
-        <v>16489</v>
+        <v>61867</v>
       </c>
     </row>
     <row r="756" spans="1:16">
@@ -38232,7 +38232,7 @@
         <v>0.41056748162085571</v>
       </c>
       <c r="P756">
-        <v>16421</v>
+        <v>61935</v>
       </c>
     </row>
     <row r="757" spans="1:16">
@@ -38282,7 +38282,7 @@
         <v>0.27795658955727648</v>
       </c>
       <c r="P757">
-        <v>16354</v>
+        <v>62002</v>
       </c>
     </row>
     <row r="758" spans="1:16">
@@ -38332,7 +38332,7 @@
         <v>0.29934103564356018</v>
       </c>
       <c r="P758">
-        <v>16286</v>
+        <v>62070</v>
       </c>
     </row>
     <row r="759" spans="1:16">
@@ -38382,7 +38382,7 @@
         <v>0.51643877659216297</v>
       </c>
       <c r="P759">
-        <v>16219</v>
+        <v>62137</v>
       </c>
     </row>
     <row r="760" spans="1:16">
@@ -38432,7 +38432,7 @@
         <v>0.31913886215878617</v>
       </c>
       <c r="P760">
-        <v>16151</v>
+        <v>62205</v>
       </c>
     </row>
     <row r="761" spans="1:16">
@@ -38482,7 +38482,7 @@
         <v>0.30091457967897223</v>
       </c>
       <c r="P761">
-        <v>16083</v>
+        <v>62273</v>
       </c>
     </row>
     <row r="762" spans="1:16">
@@ -38532,7 +38532,7 @@
         <v>0.30091457967897223</v>
       </c>
       <c r="P762">
-        <v>16016</v>
+        <v>62340</v>
       </c>
     </row>
     <row r="763" spans="1:16">
@@ -38582,7 +38582,7 @@
         <v>0.11430045321574819</v>
       </c>
       <c r="P763">
-        <v>15949</v>
+        <v>62407</v>
       </c>
     </row>
     <row r="764" spans="1:16">
@@ -38632,7 +38632,7 @@
         <v>2.985457828316072E-2</v>
       </c>
       <c r="P764">
-        <v>15882</v>
+        <v>62474</v>
       </c>
     </row>
     <row r="765" spans="1:16">
@@ -38682,7 +38682,7 @@
         <v>0.1069700297567661</v>
       </c>
       <c r="P765">
-        <v>15816</v>
+        <v>62540</v>
       </c>
     </row>
     <row r="766" spans="1:16">
@@ -38732,7 +38732,7 @@
         <v>0.22294082050487141</v>
       </c>
       <c r="P766">
-        <v>15747</v>
+        <v>62609</v>
       </c>
     </row>
     <row r="767" spans="1:16">
@@ -38782,7 +38782,7 @@
         <v>0.34604283274586273</v>
       </c>
       <c r="P767">
-        <v>15681</v>
+        <v>62675</v>
       </c>
     </row>
     <row r="768" spans="1:16">
@@ -38832,7 +38832,7 @@
         <v>0.52070374548406251</v>
       </c>
       <c r="P768">
-        <v>15615</v>
+        <v>62741</v>
       </c>
     </row>
     <row r="769" spans="1:16">
@@ -38882,7 +38882,7 @@
         <v>0.56530711636965558</v>
       </c>
       <c r="P769">
-        <v>15547</v>
+        <v>62809</v>
       </c>
     </row>
     <row r="770" spans="1:16">
@@ -38932,7 +38932,7 @@
         <v>0.52542328354208045</v>
       </c>
       <c r="P770">
-        <v>15480</v>
+        <v>62876</v>
       </c>
     </row>
     <row r="771" spans="1:16">
@@ -38982,7 +38982,7 @@
         <v>0.45976718145026668</v>
       </c>
       <c r="P771">
-        <v>15413</v>
+        <v>62943</v>
       </c>
     </row>
     <row r="772" spans="1:16">
@@ -39032,7 +39032,7 @@
         <v>0.42548151118193428</v>
       </c>
       <c r="P772">
-        <v>15346</v>
+        <v>63010</v>
       </c>
     </row>
     <row r="773" spans="1:16">
@@ -39082,7 +39082,7 @@
         <v>0.39871016194727121</v>
       </c>
       <c r="P773">
-        <v>15277</v>
+        <v>63079</v>
       </c>
     </row>
     <row r="774" spans="1:16">
@@ -39132,7 +39132,7 @@
         <v>0.37609538938582049</v>
       </c>
       <c r="P774">
-        <v>15206</v>
+        <v>63150</v>
       </c>
     </row>
     <row r="775" spans="1:16">
@@ -39182,7 +39182,7 @@
         <v>0.39895405818420993</v>
       </c>
       <c r="P775">
-        <v>15136</v>
+        <v>63220</v>
       </c>
     </row>
     <row r="776" spans="1:16">
@@ -39232,7 +39232,7 @@
         <v>0.44316241319609212</v>
       </c>
       <c r="P776">
-        <v>15066</v>
+        <v>63290</v>
       </c>
     </row>
     <row r="777" spans="1:16">
@@ -39282,7 +39282,7 @@
         <v>0.52602324984760174</v>
       </c>
       <c r="P777">
-        <v>14996</v>
+        <v>63360</v>
       </c>
     </row>
     <row r="778" spans="1:16">
@@ -39332,7 +39332,7 @@
         <v>0.55475556079381338</v>
       </c>
       <c r="P778">
-        <v>14928</v>
+        <v>63428</v>
       </c>
     </row>
     <row r="779" spans="1:16">
@@ -39382,7 +39382,7 @@
         <v>0.41745472679331641</v>
       </c>
       <c r="P779">
-        <v>14859</v>
+        <v>63497</v>
       </c>
     </row>
     <row r="780" spans="1:16">
@@ -39432,7 +39432,7 @@
         <v>0.39005352768576201</v>
       </c>
       <c r="P780">
-        <v>14789</v>
+        <v>63567</v>
       </c>
     </row>
     <row r="781" spans="1:16">
@@ -39482,7 +39482,7 @@
         <v>0.4488413736624165</v>
       </c>
       <c r="P781">
-        <v>14723</v>
+        <v>63633</v>
       </c>
     </row>
     <row r="782" spans="1:16">
@@ -39532,7 +39532,7 @@
         <v>0.46537475214259139</v>
       </c>
       <c r="P782">
-        <v>14657</v>
+        <v>63699</v>
       </c>
     </row>
     <row r="783" spans="1:16">
@@ -39582,7 +39582,7 @@
         <v>0.72060089196370691</v>
       </c>
       <c r="P783">
-        <v>14585</v>
+        <v>63771</v>
       </c>
     </row>
     <row r="784" spans="1:16">
@@ -39632,7 +39632,7 @@
         <v>0.89440539364408034</v>
       </c>
       <c r="P784">
-        <v>14516</v>
+        <v>63840</v>
       </c>
     </row>
     <row r="785" spans="1:16">
@@ -39682,7 +39682,7 @@
         <v>0.56424533624011941</v>
       </c>
       <c r="P785">
-        <v>14447</v>
+        <v>63909</v>
       </c>
     </row>
     <row r="786" spans="1:16">
@@ -39732,7 +39732,7 @@
         <v>0.44375247131165529</v>
       </c>
       <c r="P786">
-        <v>14378</v>
+        <v>63978</v>
       </c>
     </row>
     <row r="787" spans="1:16">
@@ -39782,7 +39782,7 @@
         <v>0.3487344914948608</v>
       </c>
       <c r="P787">
-        <v>14308</v>
+        <v>64048</v>
       </c>
     </row>
     <row r="788" spans="1:16">
@@ -39832,7 +39832,7 @@
         <v>0.45012949795333418</v>
       </c>
       <c r="P788">
-        <v>14240</v>
+        <v>64116</v>
       </c>
     </row>
     <row r="789" spans="1:16">
@@ -39882,7 +39882,7 @@
         <v>0.56418519237222986</v>
       </c>
       <c r="P789">
-        <v>14171</v>
+        <v>64185</v>
       </c>
     </row>
     <row r="790" spans="1:16">
@@ -39932,7 +39932,7 @@
         <v>0.7043891887750402</v>
       </c>
       <c r="P790">
-        <v>14102</v>
+        <v>64254</v>
       </c>
     </row>
     <row r="791" spans="1:16">
@@ -39982,7 +39982,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P791">
-        <v>14035</v>
+        <v>64321</v>
       </c>
     </row>
     <row r="792" spans="1:16">
@@ -40032,7 +40032,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P792">
-        <v>13966</v>
+        <v>64390</v>
       </c>
     </row>
     <row r="793" spans="1:16">
@@ -40082,7 +40082,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P793">
-        <v>13897</v>
+        <v>64459</v>
       </c>
     </row>
     <row r="794" spans="1:16">
@@ -40132,7 +40132,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P794">
-        <v>13829</v>
+        <v>64527</v>
       </c>
     </row>
     <row r="795" spans="1:16">
@@ -40182,7 +40182,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P795">
-        <v>13760</v>
+        <v>64596</v>
       </c>
     </row>
     <row r="796" spans="1:16">
@@ -40232,7 +40232,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P796">
-        <v>13693</v>
+        <v>64663</v>
       </c>
     </row>
     <row r="797" spans="1:16">
@@ -40282,7 +40282,7 @@
         <v>0.77964948131374712</v>
       </c>
       <c r="P797">
-        <v>13625</v>
+        <v>64731</v>
       </c>
     </row>
     <row r="798" spans="1:16">
@@ -40332,7 +40332,7 @@
         <v>0.77964948131374712</v>
       </c>
       <c r="P798">
-        <v>13555</v>
+        <v>64801</v>
       </c>
     </row>
     <row r="799" spans="1:16">
@@ -40382,7 +40382,7 @@
         <v>0.77964948131374712</v>
       </c>
       <c r="P799">
-        <v>13486</v>
+        <v>64870</v>
       </c>
     </row>
     <row r="800" spans="1:16">
@@ -40432,7 +40432,7 @@
         <v>0.77964948131374712</v>
       </c>
       <c r="P800">
-        <v>13415</v>
+        <v>64941</v>
       </c>
     </row>
     <row r="801" spans="1:16">
@@ -40482,7 +40482,7 @@
         <v>0.77964948131374712</v>
       </c>
       <c r="P801">
-        <v>13346</v>
+        <v>65010</v>
       </c>
     </row>
     <row r="802" spans="1:16">
@@ -40532,7 +40532,7 @@
         <v>0.77964948131374712</v>
       </c>
       <c r="P802">
-        <v>13344</v>
+        <v>65012</v>
       </c>
     </row>
     <row r="803" spans="1:16">
@@ -40582,7 +40582,7 @@
         <v>0.6704153334694043</v>
       </c>
       <c r="P803">
-        <v>13274</v>
+        <v>65082</v>
       </c>
     </row>
     <row r="804" spans="1:16">
@@ -40632,7 +40632,7 @@
         <v>0.53424319954870736</v>
       </c>
       <c r="P804">
-        <v>13202</v>
+        <v>65154</v>
       </c>
     </row>
     <row r="805" spans="1:16">
@@ -40682,7 +40682,7 @@
         <v>0.25933877892982787</v>
       </c>
       <c r="P805">
-        <v>13133</v>
+        <v>65223</v>
       </c>
     </row>
     <row r="806" spans="1:16">
@@ -40732,7 +40732,7 @@
         <v>0.33834178412393678</v>
       </c>
       <c r="P806">
-        <v>13063</v>
+        <v>65293</v>
       </c>
     </row>
     <row r="807" spans="1:16">
@@ -40782,7 +40782,7 @@
         <v>0.55779147519528516</v>
       </c>
       <c r="P807">
-        <v>12997</v>
+        <v>65359</v>
       </c>
     </row>
     <row r="808" spans="1:16">
@@ -40832,7 +40832,7 @@
         <v>0.69065890638901573</v>
       </c>
       <c r="P808">
-        <v>12929</v>
+        <v>65427</v>
       </c>
     </row>
     <row r="809" spans="1:16">
@@ -40882,7 +40882,7 @@
         <v>0.73028274063908294</v>
       </c>
       <c r="P809">
-        <v>12863</v>
+        <v>65493</v>
       </c>
     </row>
     <row r="810" spans="1:16">
@@ -40932,7 +40932,7 @@
         <v>0.54002679444612822</v>
       </c>
       <c r="P810">
-        <v>12795</v>
+        <v>65561</v>
       </c>
     </row>
     <row r="811" spans="1:16">
@@ -40982,7 +40982,7 @@
         <v>0.47899094315866991</v>
       </c>
       <c r="P811">
-        <v>12728</v>
+        <v>65628</v>
       </c>
     </row>
     <row r="812" spans="1:16">
@@ -41032,7 +41032,7 @@
         <v>0.52938392228172404</v>
       </c>
       <c r="P812">
-        <v>12661</v>
+        <v>65695</v>
       </c>
     </row>
     <row r="813" spans="1:16">
@@ -41082,7 +41082,7 @@
         <v>0.39855338865999262</v>
       </c>
       <c r="P813">
-        <v>12589</v>
+        <v>65767</v>
       </c>
     </row>
     <row r="814" spans="1:16">
@@ -41132,7 +41132,7 @@
         <v>0.51183009162881665</v>
       </c>
       <c r="P814">
-        <v>12478</v>
+        <v>65878</v>
       </c>
     </row>
     <row r="815" spans="1:16">
@@ -41182,7 +41182,7 @@
         <v>0.4033417018856279</v>
       </c>
       <c r="P815">
-        <v>12411</v>
+        <v>65945</v>
       </c>
     </row>
     <row r="816" spans="1:16">
@@ -41232,7 +41232,7 @@
         <v>0.43488475336268823</v>
       </c>
       <c r="P816">
-        <v>12344</v>
+        <v>66012</v>
       </c>
     </row>
     <row r="817" spans="1:16">
@@ -41282,7 +41282,7 @@
         <v>0.50263398394251058</v>
       </c>
       <c r="P817">
-        <v>12276</v>
+        <v>66080</v>
       </c>
     </row>
     <row r="818" spans="1:16">
@@ -41332,7 +41332,7 @@
         <v>0.5287903904336807</v>
       </c>
       <c r="P818">
-        <v>12143</v>
+        <v>66213</v>
       </c>
     </row>
     <row r="819" spans="1:16">
@@ -41382,7 +41382,7 @@
         <v>0.55257015408925936</v>
       </c>
       <c r="P819">
-        <v>12070</v>
+        <v>66286</v>
       </c>
     </row>
     <row r="820" spans="1:16">
@@ -41432,7 +41432,7 @@
         <v>0.50182573961952237</v>
       </c>
       <c r="P820">
-        <v>12012</v>
+        <v>66344</v>
       </c>
     </row>
     <row r="821" spans="1:16">
@@ -41482,7 +41482,7 @@
         <v>0.30241938269573848</v>
       </c>
       <c r="P821">
-        <v>11954</v>
+        <v>66402</v>
       </c>
     </row>
     <row r="822" spans="1:16">
@@ -41532,7 +41532,7 @@
         <v>0.25296688884903501</v>
       </c>
       <c r="P822">
-        <v>11896</v>
+        <v>66460</v>
       </c>
     </row>
     <row r="823" spans="1:16">
@@ -41582,7 +41582,7 @@
         <v>0.18620582573911559</v>
       </c>
       <c r="P823">
-        <v>11839</v>
+        <v>66517</v>
       </c>
     </row>
     <row r="824" spans="1:16">
@@ -41632,7 +41632,7 @@
         <v>0.16905421310372279</v>
       </c>
       <c r="P824">
-        <v>11782</v>
+        <v>66574</v>
       </c>
     </row>
     <row r="825" spans="1:16">
@@ -41682,7 +41682,7 @@
         <v>3.6711686580151233E-2</v>
       </c>
       <c r="P825">
-        <v>11725</v>
+        <v>66631</v>
       </c>
     </row>
     <row r="826" spans="1:16">
@@ -41732,7 +41732,7 @@
         <v>0.1337114668961211</v>
       </c>
       <c r="P826">
-        <v>11666</v>
+        <v>66690</v>
       </c>
     </row>
     <row r="827" spans="1:16">
@@ -41782,7 +41782,7 @@
         <v>0.22377715200319831</v>
       </c>
       <c r="P827">
-        <v>11607</v>
+        <v>66749</v>
       </c>
     </row>
     <row r="828" spans="1:16">
@@ -41832,7 +41832,7 @@
         <v>0.39969003177091877</v>
       </c>
       <c r="P828">
-        <v>11550</v>
+        <v>66806</v>
       </c>
     </row>
     <row r="829" spans="1:16">
@@ -41882,7 +41882,7 @@
         <v>0.53965754564405011</v>
       </c>
       <c r="P829">
-        <v>11493</v>
+        <v>66863</v>
       </c>
     </row>
     <row r="830" spans="1:16">
@@ -41932,7 +41932,7 @@
         <v>0.57145967132460851</v>
       </c>
       <c r="P830">
-        <v>11436</v>
+        <v>66920</v>
       </c>
     </row>
     <row r="831" spans="1:16">
@@ -41982,7 +41982,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P831">
-        <v>11262</v>
+        <v>67094</v>
       </c>
     </row>
     <row r="832" spans="1:16">
@@ -42032,7 +42032,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P832">
-        <v>11203</v>
+        <v>67153</v>
       </c>
     </row>
     <row r="833" spans="1:16">
@@ -42082,7 +42082,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P833">
-        <v>11148</v>
+        <v>67208</v>
       </c>
     </row>
     <row r="834" spans="1:16">
@@ -42132,7 +42132,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P834">
-        <v>11147</v>
+        <v>67209</v>
       </c>
     </row>
     <row r="835" spans="1:16">
@@ -42182,7 +42182,7 @@
         <v>0.28864577350179582</v>
       </c>
       <c r="P835">
-        <v>11091</v>
+        <v>67265</v>
       </c>
     </row>
     <row r="836" spans="1:16">
@@ -42232,7 +42232,7 @@
         <v>0.28864577350179582</v>
       </c>
       <c r="P836">
-        <v>11032</v>
+        <v>67324</v>
       </c>
     </row>
     <row r="837" spans="1:16">
@@ -42282,7 +42282,7 @@
         <v>0.28864577350179582</v>
       </c>
       <c r="P837">
-        <v>11032</v>
+        <v>67324</v>
       </c>
     </row>
     <row r="838" spans="1:16">
@@ -42332,7 +42332,7 @@
         <v>0.38444063231286107</v>
       </c>
       <c r="P838">
-        <v>10976</v>
+        <v>67380</v>
       </c>
     </row>
     <row r="839" spans="1:16">
@@ -42382,7 +42382,7 @@
         <v>0.43827682770227477</v>
       </c>
       <c r="P839">
-        <v>10918</v>
+        <v>67438</v>
       </c>
     </row>
     <row r="840" spans="1:16">
@@ -42432,7 +42432,7 @@
         <v>0.47466557228587192</v>
       </c>
       <c r="P840">
-        <v>10861</v>
+        <v>67495</v>
       </c>
     </row>
     <row r="841" spans="1:16">
@@ -42482,7 +42482,7 @@
         <v>0.42963605173916669</v>
       </c>
       <c r="P841">
-        <v>10802</v>
+        <v>67554</v>
       </c>
     </row>
     <row r="842" spans="1:16">
@@ -42532,7 +42532,7 @@
         <v>0.27771696720243533</v>
       </c>
       <c r="P842">
-        <v>10743</v>
+        <v>67613</v>
       </c>
     </row>
     <row r="843" spans="1:16">
@@ -42582,7 +42582,7 @@
         <v>0.28322377078837691</v>
       </c>
       <c r="P843">
-        <v>10684</v>
+        <v>67672</v>
       </c>
     </row>
     <row r="844" spans="1:16">
@@ -42632,7 +42632,7 @@
         <v>0.46632539057316241</v>
       </c>
       <c r="P844">
-        <v>10628</v>
+        <v>67728</v>
       </c>
     </row>
     <row r="845" spans="1:16">
@@ -42682,7 +42682,7 @@
         <v>0.55616311988135025</v>
       </c>
       <c r="P845">
-        <v>10570</v>
+        <v>67786</v>
       </c>
     </row>
     <row r="846" spans="1:16">
@@ -42732,7 +42732,7 @@
         <v>0.33123866157857013</v>
       </c>
       <c r="P846">
-        <v>10512</v>
+        <v>67844</v>
       </c>
     </row>
     <row r="847" spans="1:16">
@@ -42782,7 +42782,7 @@
         <v>0.1380689613469413</v>
       </c>
       <c r="P847">
-        <v>10451</v>
+        <v>67905</v>
       </c>
     </row>
     <row r="848" spans="1:16">
@@ -42832,7 +42832,7 @@
         <v>0.1084825369610718</v>
       </c>
       <c r="P848">
-        <v>10394</v>
+        <v>67962</v>
       </c>
     </row>
     <row r="849" spans="1:16">
@@ -42882,7 +42882,7 @@
         <v>9.6734194041134924E-2</v>
       </c>
       <c r="P849">
-        <v>10337</v>
+        <v>68019</v>
       </c>
     </row>
     <row r="850" spans="1:16">
@@ -42932,7 +42932,7 @@
         <v>3.7688853336938687E-2</v>
       </c>
       <c r="P850">
-        <v>10279</v>
+        <v>68077</v>
       </c>
     </row>
     <row r="851" spans="1:16">
@@ -42982,7 +42982,7 @@
         <v>0.1069700297567661</v>
       </c>
       <c r="P851">
-        <v>10219</v>
+        <v>68137</v>
       </c>
     </row>
     <row r="852" spans="1:16">
@@ -43032,7 +43032,7 @@
         <v>3.1652135373462557E-2</v>
       </c>
       <c r="P852">
-        <v>10161</v>
+        <v>68195</v>
       </c>
     </row>
     <row r="853" spans="1:16">
@@ -43082,7 +43082,7 @@
         <v>0.33529179239372969</v>
       </c>
       <c r="P853">
-        <v>10101</v>
+        <v>68255</v>
       </c>
     </row>
     <row r="854" spans="1:16">
@@ -43132,7 +43132,7 @@
         <v>0.33529179239372969</v>
       </c>
       <c r="P854">
-        <v>10043</v>
+        <v>68313</v>
       </c>
     </row>
     <row r="855" spans="1:16">
@@ -43182,7 +43182,7 @@
         <v>0.33529179239372969</v>
       </c>
       <c r="P855">
-        <v>9986</v>
+        <v>68370</v>
       </c>
     </row>
     <row r="856" spans="1:16">
@@ -43232,7 +43232,7 @@
         <v>0.50914896332626469</v>
       </c>
       <c r="P856">
-        <v>9927</v>
+        <v>68429</v>
       </c>
     </row>
     <row r="857" spans="1:16">
@@ -43282,7 +43282,7 @@
         <v>0.54315872278752653</v>
       </c>
       <c r="P857">
-        <v>9870</v>
+        <v>68486</v>
       </c>
     </row>
     <row r="858" spans="1:16">
@@ -43332,7 +43332,7 @@
         <v>0.53034846892390086</v>
       </c>
       <c r="P858">
-        <v>9813</v>
+        <v>68543</v>
       </c>
     </row>
     <row r="859" spans="1:16">
@@ -43382,7 +43382,7 @@
         <v>0.53034846892390086</v>
       </c>
       <c r="P859">
-        <v>9757</v>
+        <v>68599</v>
       </c>
     </row>
     <row r="860" spans="1:16">
@@ -43432,7 +43432,7 @@
         <v>0.45541259105031862</v>
       </c>
       <c r="P860">
-        <v>9701</v>
+        <v>68655</v>
       </c>
     </row>
     <row r="861" spans="1:16">
@@ -43482,7 +43482,7 @@
         <v>0.44662517476805141</v>
       </c>
       <c r="P861">
-        <v>9646</v>
+        <v>68710</v>
       </c>
     </row>
     <row r="862" spans="1:16">
@@ -43532,7 +43532,7 @@
         <v>0.40603233342974338</v>
       </c>
       <c r="P862">
-        <v>9591</v>
+        <v>68765</v>
       </c>
     </row>
     <row r="863" spans="1:16">
@@ -43582,7 +43582,7 @@
         <v>0.40603233342974338</v>
       </c>
       <c r="P863">
-        <v>9535</v>
+        <v>68821</v>
       </c>
     </row>
     <row r="864" spans="1:16">
@@ -43632,7 +43632,7 @@
         <v>0.4038818454285325</v>
       </c>
       <c r="P864">
-        <v>9423</v>
+        <v>68933</v>
       </c>
     </row>
     <row r="865" spans="1:16">
@@ -43682,7 +43682,7 @@
         <v>0.46473182175599131</v>
       </c>
       <c r="P865">
-        <v>9366</v>
+        <v>68990</v>
       </c>
     </row>
     <row r="866" spans="1:16">
@@ -43732,7 +43732,7 @@
         <v>0.59046465000329917</v>
       </c>
       <c r="P866">
-        <v>9307</v>
+        <v>69049</v>
       </c>
     </row>
     <row r="867" spans="1:16">
@@ -43782,7 +43782,7 @@
         <v>0.42443848190159678</v>
       </c>
       <c r="P867">
-        <v>9250</v>
+        <v>69106</v>
       </c>
     </row>
     <row r="868" spans="1:16">
@@ -43832,7 +43832,7 @@
         <v>0.39124929861784641</v>
       </c>
       <c r="P868">
-        <v>9190</v>
+        <v>69166</v>
       </c>
     </row>
     <row r="869" spans="1:16">
@@ -43882,7 +43882,7 @@
         <v>0.53707227697236304</v>
       </c>
       <c r="P869">
-        <v>9131</v>
+        <v>69225</v>
       </c>
     </row>
     <row r="870" spans="1:16">
@@ -43932,7 +43932,7 @@
         <v>0.48250766557636332</v>
       </c>
       <c r="P870">
-        <v>9072</v>
+        <v>69284</v>
       </c>
     </row>
     <row r="871" spans="1:16">
@@ -43982,7 +43982,7 @@
         <v>0.67302494208135166</v>
       </c>
       <c r="P871">
-        <v>9012</v>
+        <v>69344</v>
       </c>
     </row>
     <row r="872" spans="1:16">
@@ -44032,7 +44032,7 @@
         <v>0.85216561175840277</v>
       </c>
       <c r="P872">
-        <v>8954</v>
+        <v>69402</v>
       </c>
     </row>
     <row r="873" spans="1:16">
@@ -44082,7 +44082,7 @@
         <v>0.58693629486092047</v>
       </c>
       <c r="P873">
-        <v>8894</v>
+        <v>69462</v>
       </c>
     </row>
     <row r="874" spans="1:16">
@@ -44132,7 +44132,7 @@
         <v>0.57610557631712267</v>
       </c>
       <c r="P874">
-        <v>8837</v>
+        <v>69519</v>
       </c>
     </row>
     <row r="875" spans="1:16">
@@ -44182,7 +44182,7 @@
         <v>0.32274004182391991</v>
       </c>
       <c r="P875">
-        <v>8779</v>
+        <v>69577</v>
       </c>
     </row>
     <row r="876" spans="1:16">
@@ -44232,7 +44232,7 @@
         <v>0.33796317099853029</v>
       </c>
       <c r="P876">
-        <v>8720</v>
+        <v>69636</v>
       </c>
     </row>
     <row r="877" spans="1:16">
@@ -44282,7 +44282,7 @@
         <v>0.38094716615187241</v>
       </c>
       <c r="P877">
-        <v>8663</v>
+        <v>69693</v>
       </c>
     </row>
     <row r="878" spans="1:16">
@@ -44332,7 +44332,7 @@
         <v>0.61440285548511997</v>
       </c>
       <c r="P878">
-        <v>8605</v>
+        <v>69751</v>
       </c>
     </row>
     <row r="879" spans="1:16">
@@ -44382,7 +44382,7 @@
         <v>0.63166708102573021</v>
       </c>
       <c r="P879">
-        <v>8553</v>
+        <v>69803</v>
       </c>
     </row>
     <row r="880" spans="1:16">
@@ -44432,7 +44432,7 @@
         <v>0.73575891057349352</v>
       </c>
       <c r="P880">
-        <v>8491</v>
+        <v>69865</v>
       </c>
     </row>
     <row r="881" spans="1:16">
@@ -44482,7 +44482,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P881">
-        <v>8434</v>
+        <v>69922</v>
       </c>
     </row>
     <row r="882" spans="1:16">
@@ -44532,7 +44532,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P882">
-        <v>8377</v>
+        <v>69979</v>
       </c>
     </row>
     <row r="883" spans="1:16">
@@ -44582,7 +44582,7 @@
         <v>0.77953214907736235</v>
       </c>
       <c r="P883">
-        <v>8318</v>
+        <v>70038</v>
       </c>
     </row>
     <row r="884" spans="1:16">
@@ -44632,7 +44632,7 @@
         <v>0.77963798228798142</v>
       </c>
       <c r="P884">
-        <v>8262</v>
+        <v>70094</v>
       </c>
     </row>
     <row r="885" spans="1:16">
@@ -44682,7 +44682,7 @@
         <v>0.77963798228798142</v>
       </c>
       <c r="P885">
-        <v>8204</v>
+        <v>70152</v>
       </c>
     </row>
     <row r="886" spans="1:16">
@@ -44732,7 +44732,7 @@
         <v>0.77963798228798142</v>
       </c>
       <c r="P886">
-        <v>8145</v>
+        <v>70211</v>
       </c>
     </row>
     <row r="887" spans="1:16">
@@ -44782,7 +44782,7 @@
         <v>0.77963798228798142</v>
       </c>
       <c r="P887">
-        <v>8086</v>
+        <v>70270</v>
       </c>
     </row>
     <row r="888" spans="1:16">
@@ -44832,7 +44832,7 @@
         <v>0.77963798228798142</v>
       </c>
       <c r="P888">
-        <v>8026</v>
+        <v>70330</v>
       </c>
     </row>
     <row r="889" spans="1:16">
@@ -44882,7 +44882,7 @@
         <v>0.77963798228798142</v>
       </c>
       <c r="P889">
-        <v>8026</v>
+        <v>70330</v>
       </c>
     </row>
     <row r="890" spans="1:16">
@@ -44932,7 +44932,7 @@
         <v>0.6704153334694043</v>
       </c>
       <c r="P890">
-        <v>7970</v>
+        <v>70386</v>
       </c>
     </row>
     <row r="891" spans="1:16">
@@ -44982,7 +44982,7 @@
         <v>0.65419414016126953</v>
       </c>
       <c r="P891">
-        <v>7913</v>
+        <v>70443</v>
       </c>
     </row>
     <row r="892" spans="1:16">
@@ -45032,7 +45032,7 @@
         <v>0.33937702151983579</v>
       </c>
       <c r="P892">
-        <v>7856</v>
+        <v>70500</v>
       </c>
     </row>
     <row r="893" spans="1:16">
@@ -45082,7 +45082,7 @@
         <v>0.2065883275676004</v>
       </c>
       <c r="P893">
-        <v>7797</v>
+        <v>70559</v>
       </c>
     </row>
     <row r="894" spans="1:16">
@@ -45132,7 +45132,7 @@
         <v>0.31445012320522309</v>
       </c>
       <c r="P894">
-        <v>7746</v>
+        <v>70610</v>
       </c>
     </row>
     <row r="895" spans="1:16">
@@ -45182,7 +45182,7 @@
         <v>0.55759388823444</v>
       </c>
       <c r="P895">
-        <v>7682</v>
+        <v>70674</v>
       </c>
     </row>
     <row r="896" spans="1:16">
@@ -45232,7 +45232,7 @@
         <v>0.73524247459991898</v>
       </c>
       <c r="P896">
-        <v>7568</v>
+        <v>70788</v>
       </c>
     </row>
     <row r="897" spans="1:16">
@@ -45282,7 +45282,7 @@
         <v>0.49051012827031659</v>
       </c>
       <c r="P897">
-        <v>7510</v>
+        <v>70846</v>
       </c>
     </row>
     <row r="898" spans="1:16">
@@ -45332,7 +45332,7 @@
         <v>0.50501423150090941</v>
       </c>
       <c r="P898">
-        <v>7452</v>
+        <v>70904</v>
       </c>
     </row>
     <row r="899" spans="1:16">
@@ -45382,7 +45382,7 @@
         <v>0.43799931809700687</v>
       </c>
       <c r="P899">
-        <v>7394</v>
+        <v>70962</v>
       </c>
     </row>
     <row r="900" spans="1:16">
@@ -45432,7 +45432,7 @@
         <v>0.43474095235047022</v>
       </c>
       <c r="P900">
-        <v>7337</v>
+        <v>71019</v>
       </c>
     </row>
     <row r="901" spans="1:16">
@@ -45482,7 +45482,7 @@
         <v>0.58557725310882758</v>
       </c>
       <c r="P901">
-        <v>7280</v>
+        <v>71076</v>
       </c>
     </row>
     <row r="902" spans="1:16">
@@ -45532,7 +45532,7 @@
         <v>0.42673706857072158</v>
       </c>
       <c r="P902">
-        <v>7222</v>
+        <v>71134</v>
       </c>
     </row>
     <row r="903" spans="1:16">
@@ -45582,7 +45582,7 @@
         <v>0.41761253798745368</v>
       </c>
       <c r="P903">
-        <v>7164</v>
+        <v>71192</v>
       </c>
     </row>
     <row r="904" spans="1:16">
@@ -45632,7 +45632,7 @@
         <v>0.55430420092941102</v>
       </c>
       <c r="P904">
-        <v>7113</v>
+        <v>71243</v>
       </c>
     </row>
     <row r="905" spans="1:16">
@@ -45682,7 +45682,7 @@
         <v>0.55250305309885472</v>
       </c>
       <c r="P905">
-        <v>7050</v>
+        <v>71306</v>
       </c>
     </row>
     <row r="906" spans="1:16">
@@ -45732,7 +45732,7 @@
         <v>0.54996378850535466</v>
       </c>
       <c r="P906">
-        <v>7003</v>
+        <v>71353</v>
       </c>
     </row>
     <row r="907" spans="1:16">
@@ -45782,7 +45782,7 @@
         <v>0.45269942865689589</v>
       </c>
       <c r="P907">
-        <v>6937</v>
+        <v>71419</v>
       </c>
     </row>
     <row r="908" spans="1:16">
@@ -45832,7 +45832,7 @@
         <v>0.42961485278248712</v>
       </c>
       <c r="P908">
-        <v>6879</v>
+        <v>71477</v>
       </c>
     </row>
     <row r="909" spans="1:16">
@@ -45882,7 +45882,7 @@
         <v>0.36333910619897292</v>
       </c>
       <c r="P909">
-        <v>6821</v>
+        <v>71535</v>
       </c>
     </row>
     <row r="910" spans="1:16">
@@ -45932,7 +45932,7 @@
         <v>0.31512800262990348</v>
       </c>
       <c r="P910">
-        <v>6762</v>
+        <v>71594</v>
       </c>
     </row>
     <row r="911" spans="1:16">
@@ -45982,7 +45982,7 @@
         <v>0.21957253455396011</v>
       </c>
       <c r="P911">
-        <v>6704</v>
+        <v>71652</v>
       </c>
     </row>
     <row r="912" spans="1:16">
@@ -46032,7 +46032,7 @@
         <v>0.30376901401529172</v>
       </c>
       <c r="P912">
-        <v>6647</v>
+        <v>71709</v>
       </c>
     </row>
     <row r="913" spans="1:16">
@@ -46082,7 +46082,7 @@
         <v>0.2030980458100963</v>
       </c>
       <c r="P913">
-        <v>6588</v>
+        <v>71768</v>
       </c>
     </row>
     <row r="914" spans="1:16">
@@ -46132,7 +46132,7 @@
         <v>0.17107870181564289</v>
       </c>
       <c r="P914">
-        <v>6529</v>
+        <v>71827</v>
       </c>
     </row>
     <row r="915" spans="1:16">
@@ -46182,7 +46182,7 @@
         <v>9.5276195862778329E-2</v>
       </c>
       <c r="P915">
-        <v>6471</v>
+        <v>71885</v>
       </c>
     </row>
     <row r="916" spans="1:16">
@@ -46232,7 +46232,7 @@
         <v>0.23311484850295119</v>
       </c>
       <c r="P916">
-        <v>6413</v>
+        <v>71943</v>
       </c>
     </row>
     <row r="917" spans="1:16">
@@ -46282,7 +46282,7 @@
         <v>0.29975368917833439</v>
       </c>
       <c r="P917">
-        <v>6355</v>
+        <v>72001</v>
       </c>
     </row>
     <row r="918" spans="1:16">
@@ -46332,7 +46332,7 @@
         <v>0.50638855199057742</v>
       </c>
       <c r="P918">
-        <v>6293</v>
+        <v>72063</v>
       </c>
     </row>
     <row r="919" spans="1:16">
@@ -46382,7 +46382,7 @@
         <v>0.65257057291623222</v>
       </c>
       <c r="P919">
-        <v>6170</v>
+        <v>72186</v>
       </c>
     </row>
     <row r="920" spans="1:16">
@@ -46432,7 +46432,7 @@
         <v>0.46490319474751762</v>
       </c>
       <c r="P920">
-        <v>6107</v>
+        <v>72249</v>
       </c>
     </row>
     <row r="921" spans="1:16">
@@ -46482,7 +46482,7 @@
         <v>0.38411102410317122</v>
       </c>
       <c r="P921">
-        <v>6047</v>
+        <v>72309</v>
       </c>
     </row>
     <row r="922" spans="1:16">
@@ -46532,7 +46532,7 @@
         <v>0.31447379492724031</v>
       </c>
       <c r="P922">
-        <v>5985</v>
+        <v>72371</v>
       </c>
     </row>
     <row r="923" spans="1:16">
@@ -46582,7 +46582,7 @@
         <v>0.38297057491633107</v>
       </c>
       <c r="P923">
-        <v>5926</v>
+        <v>72430</v>
       </c>
     </row>
     <row r="924" spans="1:16">
@@ -46632,7 +46632,7 @@
         <v>0.54687444874512259</v>
       </c>
       <c r="P924">
-        <v>5866</v>
+        <v>72490</v>
       </c>
     </row>
     <row r="925" spans="1:16">
@@ -46682,7 +46682,7 @@
         <v>0.71616743557539753</v>
       </c>
       <c r="P925">
-        <v>5802</v>
+        <v>72554</v>
       </c>
     </row>
     <row r="926" spans="1:16">
@@ -46732,7 +46732,7 @@
         <v>0.6126658908367274</v>
       </c>
       <c r="P926">
-        <v>5742</v>
+        <v>72614</v>
       </c>
     </row>
     <row r="927" spans="1:16">
@@ -46782,7 +46782,7 @@
         <v>0.55523479132155973</v>
       </c>
       <c r="P927">
-        <v>5678</v>
+        <v>72678</v>
       </c>
     </row>
     <row r="928" spans="1:16">
@@ -46832,7 +46832,7 @@
         <v>0.42677159839899709</v>
       </c>
       <c r="P928">
-        <v>5616</v>
+        <v>72740</v>
       </c>
     </row>
     <row r="929" spans="1:16">
@@ -46882,7 +46882,7 @@
         <v>0.38611649669957621</v>
       </c>
       <c r="P929">
-        <v>5554</v>
+        <v>72802</v>
       </c>
     </row>
     <row r="930" spans="1:16">
@@ -46932,7 +46932,7 @@
         <v>0.3032181408752781</v>
       </c>
       <c r="P930">
-        <v>5489</v>
+        <v>72867</v>
       </c>
     </row>
     <row r="931" spans="1:16">
@@ -46982,7 +46982,7 @@
         <v>0.44511948888601899</v>
       </c>
       <c r="P931">
-        <v>5385</v>
+        <v>72971</v>
       </c>
     </row>
     <row r="932" spans="1:16">
@@ -47032,7 +47032,7 @@
         <v>0.42697258784279191</v>
       </c>
       <c r="P932">
-        <v>5320</v>
+        <v>73036</v>
       </c>
     </row>
     <row r="933" spans="1:16">
@@ -47082,7 +47082,7 @@
         <v>0.58835088854320616</v>
       </c>
       <c r="P933">
-        <v>5254</v>
+        <v>73102</v>
       </c>
     </row>
     <row r="934" spans="1:16">
@@ -47132,7 +47132,7 @@
         <v>0.77160686400058698</v>
       </c>
       <c r="P934">
-        <v>5191</v>
+        <v>73165</v>
       </c>
     </row>
     <row r="935" spans="1:16">
@@ -47182,7 +47182,7 @@
         <v>0.5152001386241688</v>
       </c>
       <c r="P935">
-        <v>5127</v>
+        <v>73229</v>
       </c>
     </row>
     <row r="936" spans="1:16">
@@ -47232,7 +47232,7 @@
         <v>0.37232313116976579</v>
       </c>
       <c r="P936">
-        <v>5065</v>
+        <v>73291</v>
       </c>
     </row>
     <row r="937" spans="1:16">
@@ -47282,7 +47282,7 @@
         <v>0.2594642716434381</v>
       </c>
       <c r="P937">
-        <v>5001</v>
+        <v>73355</v>
       </c>
     </row>
     <row r="938" spans="1:16">
@@ -47332,7 +47332,7 @@
         <v>0.33449444757776248</v>
       </c>
       <c r="P938">
-        <v>4936</v>
+        <v>73420</v>
       </c>
     </row>
     <row r="939" spans="1:16">
@@ -47382,7 +47382,7 @@
         <v>0.47920237210828459</v>
       </c>
       <c r="P939">
-        <v>4868</v>
+        <v>73488</v>
       </c>
     </row>
     <row r="940" spans="1:16">
@@ -47432,7 +47432,7 @@
         <v>0.69021489335136954</v>
       </c>
       <c r="P940">
-        <v>4799</v>
+        <v>73557</v>
       </c>
     </row>
     <row r="941" spans="1:16">
@@ -47482,7 +47482,7 @@
         <v>0.85371377468480081</v>
       </c>
       <c r="P941">
-        <v>4728</v>
+        <v>73628</v>
       </c>
     </row>
     <row r="942" spans="1:16">
@@ -47532,7 +47532,7 @@
         <v>0.87940051010640752</v>
       </c>
       <c r="P942">
-        <v>4660</v>
+        <v>73696</v>
       </c>
     </row>
     <row r="943" spans="1:16">
@@ -47582,7 +47582,7 @@
         <v>0.87940051010640752</v>
       </c>
       <c r="P943">
-        <v>4593</v>
+        <v>73763</v>
       </c>
     </row>
     <row r="944" spans="1:16">
@@ -47632,7 +47632,7 @@
         <v>0.87940051010640752</v>
       </c>
       <c r="P944">
-        <v>4525</v>
+        <v>73831</v>
       </c>
     </row>
     <row r="945" spans="1:16">
@@ -47682,7 +47682,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P945">
-        <v>4450</v>
+        <v>73906</v>
       </c>
     </row>
     <row r="946" spans="1:16">
@@ -47732,7 +47732,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P946">
-        <v>4380</v>
+        <v>73976</v>
       </c>
     </row>
     <row r="947" spans="1:16">
@@ -47782,7 +47782,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P947">
-        <v>4309</v>
+        <v>74047</v>
       </c>
     </row>
     <row r="948" spans="1:16">
@@ -47832,7 +47832,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P948">
-        <v>4236</v>
+        <v>74120</v>
       </c>
     </row>
     <row r="949" spans="1:16">
@@ -47882,7 +47882,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P949">
-        <v>4166</v>
+        <v>74190</v>
       </c>
     </row>
     <row r="950" spans="1:16">
@@ -47932,7 +47932,7 @@
         <v>0.87915911006407277</v>
       </c>
       <c r="P950">
-        <v>4166</v>
+        <v>74190</v>
       </c>
     </row>
     <row r="951" spans="1:16">
@@ -47982,7 +47982,7 @@
         <v>0.77939478773587101</v>
       </c>
       <c r="P951">
-        <v>4090</v>
+        <v>74266</v>
       </c>
     </row>
     <row r="952" spans="1:16">
@@ -48032,7 +48032,7 @@
         <v>0.70000243000498363</v>
       </c>
       <c r="P952">
-        <v>4016</v>
+        <v>74340</v>
       </c>
     </row>
     <row r="953" spans="1:16">
@@ -48082,7 +48082,7 @@
         <v>0.48121895376086771</v>
       </c>
       <c r="P953">
-        <v>3940</v>
+        <v>74416</v>
       </c>
     </row>
     <row r="954" spans="1:16">
@@ -48132,7 +48132,7 @@
         <v>0.1989929541116458</v>
       </c>
       <c r="P954">
-        <v>3867</v>
+        <v>74489</v>
       </c>
     </row>
     <row r="955" spans="1:16">
@@ -48182,7 +48182,7 @@
         <v>0.37372426917375862</v>
       </c>
       <c r="P955">
-        <v>3788</v>
+        <v>74568</v>
       </c>
     </row>
     <row r="956" spans="1:16">
@@ -48232,7 +48232,7 @@
         <v>0.69484596130125753</v>
       </c>
       <c r="P956">
-        <v>3715</v>
+        <v>74641</v>
       </c>
     </row>
     <row r="957" spans="1:16">
@@ -48282,7 +48282,7 @@
         <v>0.44655600332161749</v>
       </c>
       <c r="P957">
-        <v>3643</v>
+        <v>74713</v>
       </c>
     </row>
     <row r="958" spans="1:16">
@@ -48332,7 +48332,7 @@
         <v>0.37071662826673463</v>
       </c>
       <c r="P958">
-        <v>3567</v>
+        <v>74789</v>
       </c>
     </row>
     <row r="959" spans="1:16">
@@ -48382,7 +48382,7 @@
         <v>0.30655022238403967</v>
       </c>
       <c r="P959">
-        <v>3492</v>
+        <v>74864</v>
       </c>
     </row>
     <row r="960" spans="1:16">
@@ -48432,7 +48432,7 @@
         <v>0.40753251500145721</v>
       </c>
       <c r="P960">
-        <v>3415</v>
+        <v>74941</v>
       </c>
     </row>
     <row r="961" spans="1:16">
@@ -48482,7 +48482,7 @@
         <v>0.40753251500145721</v>
       </c>
       <c r="P961">
-        <v>3414</v>
+        <v>74942</v>
       </c>
     </row>
     <row r="962" spans="1:16">
@@ -48532,7 +48532,7 @@
         <v>0.1455897621323958</v>
       </c>
       <c r="P962">
-        <v>3340</v>
+        <v>75016</v>
       </c>
     </row>
     <row r="963" spans="1:16">
@@ -48582,7 +48582,7 @@
         <v>0.33893345834018518</v>
       </c>
       <c r="P963">
-        <v>3261</v>
+        <v>75095</v>
       </c>
     </row>
     <row r="964" spans="1:16">
@@ -48632,7 +48632,7 @@
         <v>0.33893345834018518</v>
       </c>
       <c r="P964">
-        <v>3261</v>
+        <v>75095</v>
       </c>
     </row>
     <row r="965" spans="1:16">
@@ -48682,7 +48682,7 @@
         <v>0.38377405334789438</v>
       </c>
       <c r="P965">
-        <v>3183</v>
+        <v>75173</v>
       </c>
     </row>
     <row r="966" spans="1:16">
@@ -48732,7 +48732,7 @@
         <v>0.32626184776169348</v>
       </c>
       <c r="P966">
-        <v>3105</v>
+        <v>75251</v>
       </c>
     </row>
     <row r="967" spans="1:16">
@@ -48782,7 +48782,7 @@
         <v>0.32626184776169298</v>
       </c>
       <c r="P967">
-        <v>3024</v>
+        <v>75332</v>
       </c>
     </row>
     <row r="968" spans="1:16">
@@ -48832,7 +48832,7 @@
         <v>0.30097341246962178</v>
       </c>
       <c r="P968">
-        <v>2943</v>
+        <v>75413</v>
       </c>
     </row>
     <row r="969" spans="1:16">
@@ -48882,7 +48882,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P969">
-        <v>2857</v>
+        <v>75499</v>
       </c>
     </row>
     <row r="970" spans="1:16">
@@ -48932,7 +48932,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P970">
-        <v>2772</v>
+        <v>75584</v>
       </c>
     </row>
     <row r="971" spans="1:16">
@@ -48982,7 +48982,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P971">
-        <v>2694</v>
+        <v>75662</v>
       </c>
     </row>
     <row r="972" spans="1:16">
@@ -49032,7 +49032,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P972">
-        <v>2605</v>
+        <v>75751</v>
       </c>
     </row>
     <row r="973" spans="1:16">
@@ -49082,7 +49082,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P973">
-        <v>2519</v>
+        <v>75837</v>
       </c>
     </row>
     <row r="974" spans="1:16">
@@ -49132,7 +49132,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P974">
-        <v>2436</v>
+        <v>75920</v>
       </c>
     </row>
     <row r="975" spans="1:16">
@@ -49182,7 +49182,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P975">
-        <v>2260</v>
+        <v>76096</v>
       </c>
     </row>
     <row r="976" spans="1:16">
@@ -49232,7 +49232,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P976">
-        <v>2172</v>
+        <v>76184</v>
       </c>
     </row>
     <row r="977" spans="1:16">
@@ -49282,7 +49282,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P977">
-        <v>2080</v>
+        <v>76276</v>
       </c>
     </row>
     <row r="978" spans="1:16">
@@ -49332,7 +49332,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P978">
-        <v>1992</v>
+        <v>76364</v>
       </c>
     </row>
     <row r="979" spans="1:16">
@@ -49382,7 +49382,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P979">
-        <v>1905</v>
+        <v>76451</v>
       </c>
     </row>
     <row r="980" spans="1:16">
@@ -49432,7 +49432,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P980">
-        <v>1816</v>
+        <v>76540</v>
       </c>
     </row>
     <row r="981" spans="1:16">
@@ -49482,7 +49482,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P981">
-        <v>1677</v>
+        <v>76679</v>
       </c>
     </row>
     <row r="982" spans="1:16">
@@ -49532,7 +49532,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P982">
-        <v>1642</v>
+        <v>76714</v>
       </c>
     </row>
     <row r="983" spans="1:16">
@@ -49582,7 +49582,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P983">
-        <v>1553</v>
+        <v>76803</v>
       </c>
     </row>
     <row r="984" spans="1:16">
@@ -49632,7 +49632,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P984">
-        <v>1456</v>
+        <v>76900</v>
       </c>
     </row>
     <row r="985" spans="1:16">
@@ -49682,7 +49682,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P985">
-        <v>1369</v>
+        <v>76987</v>
       </c>
     </row>
     <row r="986" spans="1:16">
@@ -49732,7 +49732,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P986">
-        <v>1274</v>
+        <v>77082</v>
       </c>
     </row>
     <row r="987" spans="1:16">
@@ -49782,7 +49782,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P987">
-        <v>1183</v>
+        <v>77173</v>
       </c>
     </row>
     <row r="988" spans="1:16">
@@ -49832,7 +49832,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P988">
-        <v>990</v>
+        <v>77366</v>
       </c>
     </row>
     <row r="989" spans="1:16">
@@ -49882,7 +49882,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P989">
-        <v>895</v>
+        <v>77461</v>
       </c>
     </row>
     <row r="990" spans="1:16">
@@ -49932,7 +49932,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P990">
-        <v>793</v>
+        <v>77563</v>
       </c>
     </row>
     <row r="991" spans="1:16">
@@ -49982,7 +49982,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P991">
-        <v>699</v>
+        <v>77657</v>
       </c>
     </row>
     <row r="992" spans="1:16">
@@ -50032,7 +50032,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P992">
-        <v>598</v>
+        <v>77758</v>
       </c>
     </row>
     <row r="993" spans="1:16">
@@ -50082,7 +50082,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P993">
-        <v>495</v>
+        <v>77861</v>
       </c>
     </row>
     <row r="994" spans="1:16">
@@ -50132,7 +50132,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P994">
-        <v>400</v>
+        <v>77956</v>
       </c>
     </row>
     <row r="995" spans="1:16">
@@ -50182,7 +50182,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P995">
-        <v>299</v>
+        <v>78057</v>
       </c>
     </row>
     <row r="996" spans="1:16">
@@ -50232,7 +50232,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P996">
-        <v>198</v>
+        <v>78158</v>
       </c>
     </row>
     <row r="997" spans="1:16">
@@ -50282,7 +50282,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P997">
-        <v>165</v>
+        <v>78191</v>
       </c>
     </row>
     <row r="998" spans="1:16">
@@ -50332,7 +50332,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P998">
-        <v>101</v>
+        <v>78255</v>
       </c>
     </row>
     <row r="999" spans="1:16">
@@ -50382,7 +50382,7 @@
         <v>0.28866880127850542</v>
       </c>
       <c r="P999">
-        <v>0</v>
+        <v>78356</v>
       </c>
     </row>
   </sheetData>
